--- a/surveys/Characterization 102819-524.xlsx
+++ b/surveys/Characterization 102819-524.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11985" windowWidth="25200" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2360-190602" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Map (2)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Map (3)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Map (4)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Map (5)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Map (7)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Map (6)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360-190602" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (2)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (3)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (4)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (5)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (7)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Map (6)" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_2360">#REF!</definedName>
-    <definedName localSheetId="1" name="_2360">#REF!</definedName>
-    <definedName localSheetId="2" name="_2360">#REF!</definedName>
-    <definedName localSheetId="3" name="_2360">#REF!</definedName>
-    <definedName localSheetId="4" name="_2360">#REF!</definedName>
-    <definedName localSheetId="6" name="_2360">#REF!</definedName>
-    <definedName localSheetId="5" name="_2360">#REF!</definedName>
+    <definedName name="_2360" localSheetId="0">#REF!</definedName>
+    <definedName name="_2360" localSheetId="1">#REF!</definedName>
+    <definedName name="_2360" localSheetId="2">#REF!</definedName>
+    <definedName name="_2360" localSheetId="3">#REF!</definedName>
+    <definedName name="_2360" localSheetId="4">#REF!</definedName>
+    <definedName name="_2360" localSheetId="6">#REF!</definedName>
+    <definedName name="_2360" localSheetId="5">#REF!</definedName>
     <definedName name="_2360">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Titles">'2360-190602'!$1:$17</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'2360-190602'!$A$1:$S$39</definedName>
-    <definedName localSheetId="1" name="_xlnm.Print_Area">'Map (2)'!$A$1:$BY$45</definedName>
-    <definedName localSheetId="2" name="_xlnm.Print_Area">'Map (3)'!$A$1:$BY$45</definedName>
-    <definedName localSheetId="3" name="_xlnm.Print_Area">'Map (4)'!$A$1:$BY$45</definedName>
-    <definedName localSheetId="4" name="_xlnm.Print_Area">'Map (5)'!$A$1:$BY$45</definedName>
-    <definedName localSheetId="5" name="_xlnm.Print_Area">'Map (7)'!$A$1:$BY$45</definedName>
-    <definedName localSheetId="6" name="_xlnm.Print_Area">'Map (6)'!$A$1:$BY$45</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'2360-190602'!$1:$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2360-190602'!$A$1:$S$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Map (2)'!$A$1:$BY$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Map (3)'!$A$1:$BY$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Map (4)'!$A$1:$BY$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Map (5)'!$A$1:$BY$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Map (7)'!$A$1:$BY$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Map (6)'!$A$1:$BY$45</definedName>
   </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
@@ -39,8 +39,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode=";;;" numFmtId="164"/>
-    <numFmt formatCode="m/d/yyyy;@" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode=";;;"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1488,994 +1488,994 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="331">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="56" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="62" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="59" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="63" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="64" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="60" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="61" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="24" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="30" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="29" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="29" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="31" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="32" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="34" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="36" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="34" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="37" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="35" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="38" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="39" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="33" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="40" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="41" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="41" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="51" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="52" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="51" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="52" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="41" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="50" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="68" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="69" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="70" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="71" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="74" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="74" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="80" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="81" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="44" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="65" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="65" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="51" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="52" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="67" fillId="2" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="67" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="72" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="72" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="73" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="73" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="76" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="76" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="78" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="78" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="55" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="55" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="79" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="79" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="43" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="47" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="82" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="47" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="82" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="82" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="20" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="23" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="25" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="31" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="82" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="47" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="75" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="75" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="28" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="29" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="27" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="43" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="46" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="43" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="46" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="86" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="83" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="84" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="51" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="85" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="57" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="58" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="59" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="66" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="26" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="75" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="75" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="53" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="54" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="55" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="48" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="55" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="49" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="49" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="3" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="19" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="77" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="77" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="54" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="55" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="53" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="54" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="55" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="48" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="48" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="54" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="49" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="15" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="11" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="98" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="2" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="88" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="89" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="89" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="22" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="23" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="96" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="96" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="27" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="44" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="46" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="95" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="84" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="44" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="93" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="93" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="86" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="89" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="89" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="49" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="42" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="45" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="87" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="87" fillId="3" fontId="3" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="52" fillId="0" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="85" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="45" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="87" fillId="3" fontId="3" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="45" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="45" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="2" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="87" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="90" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="45" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="87" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="88" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="54" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="55" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="78" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="89" fillId="0" fontId="3" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="91" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="69" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="69" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="68" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="68" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="80" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="80" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="98" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="98" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="97" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="97" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="90" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="2" fontId="4" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="87" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="87" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="88" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="89" fillId="2" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="89" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2816,23 +2816,23 @@
   </sheetPr>
   <dimension ref="A1:BC39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="3.42578125"/>
-    <col customWidth="1" max="3" min="2" style="13" width="10.42578125"/>
-    <col customWidth="1" max="4" min="4" style="13" width="18.28515625"/>
-    <col customWidth="1" max="5" min="5" style="13" width="5.28515625"/>
-    <col customWidth="1" max="7" min="6" style="13" width="2.5703125"/>
-    <col customWidth="1" max="8" min="8" style="13" width="5.28515625"/>
-    <col customWidth="1" max="19" min="9" style="13" width="7.42578125"/>
-    <col customWidth="1" max="16384" min="20" style="13" width="9.140625"/>
+    <col width="3.42578125" customWidth="1" style="13" min="1" max="1"/>
+    <col width="10.42578125" customWidth="1" style="13" min="2" max="3"/>
+    <col width="18.28515625" customWidth="1" style="13" min="4" max="4"/>
+    <col width="5.28515625" customWidth="1" style="13" min="5" max="5"/>
+    <col width="2.5703125" customWidth="1" style="13" min="6" max="7"/>
+    <col width="5.28515625" customWidth="1" style="13" min="8" max="8"/>
+    <col width="7.42578125" customWidth="1" style="13" min="9" max="19"/>
+    <col width="9.140625" customWidth="1" style="13" min="20" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="39" r="1" s="92" thickBot="1">
+    <row r="1" ht="39" customHeight="1" s="92" thickBot="1">
       <c r="A1" s="152" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -2853,7 +2853,7 @@
       <c r="R1" s="262" t="n"/>
       <c r="S1" s="262" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="2" s="92" thickTop="1">
+    <row r="2" ht="13.5" customHeight="1" s="92" thickTop="1">
       <c r="A2" s="14" t="n"/>
       <c r="B2" s="15" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       <c r="R2" s="266" t="n"/>
       <c r="S2" s="264" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="3" s="92">
+    <row r="3" ht="13.5" customHeight="1" s="92">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
       <c r="R3" s="272" t="n"/>
       <c r="S3" s="275" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="4" s="92" thickBot="1">
+    <row r="4" ht="13.5" customHeight="1" s="92" thickBot="1">
       <c r="A4" s="18" t="n"/>
       <c r="B4" s="19" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
       <c r="R4" s="262" t="n"/>
       <c r="S4" s="280" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="5" s="92" thickTop="1">
+    <row r="5" ht="13.5" customHeight="1" s="92" thickTop="1">
       <c r="A5" s="20" t="n"/>
       <c r="B5" s="19" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="6" s="92">
+    <row r="6" ht="13.5" customHeight="1" s="92">
       <c r="A6" s="32" t="n"/>
       <c r="B6" s="33" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="7" s="92">
+    <row r="7" ht="13.5" customHeight="1" s="92">
       <c r="A7" s="46" t="n"/>
       <c r="B7" s="19" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="8" s="92" thickBot="1">
+    <row r="8" ht="13.5" customHeight="1" s="92" thickBot="1">
       <c r="A8" s="51" t="n"/>
       <c r="B8" s="19" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="9" s="92" thickTop="1">
+    <row r="9" ht="13.5" customHeight="1" s="92" thickTop="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
@@ -3221,7 +3221,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="10" s="92">
+    <row r="10" ht="13.5" customHeight="1" s="92">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   PCF = Probe Correction Factor</t>
@@ -3266,7 +3266,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="11" s="92">
+    <row r="11" ht="13.5" customHeight="1" s="92">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Tb = Background count time</t>
@@ -3313,7 +3313,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="12" s="92">
+    <row r="12" ht="13.5" customHeight="1" s="92">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">   Ts = Sample count time</t>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="13" s="92">
+    <row r="13" ht="13.5" customHeight="1" s="92">
       <c r="A13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Rb = Background count rate</t>
@@ -3404,7 +3404,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="14" s="92">
+    <row r="14" ht="13.5" customHeight="1" s="92">
       <c r="A14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   Bcpm = Background cpm </t>
@@ -3444,7 +3444,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="15" s="92">
+    <row r="15" ht="13.5" customHeight="1" s="92">
       <c r="A15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDCR = Minimum Detectable Count Rate (net cpm)</t>
@@ -3488,7 +3488,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="16" s="92" thickBot="1">
+    <row r="16" ht="13.5" customHeight="1" s="92" thickBot="1">
       <c r="A16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">   MDC = Minimum Detectable Concentration (dpm per 100cm2)</t>
@@ -3530,7 +3530,7 @@
       <c r="S16" s="292" t="n"/>
       <c r="V16" s="31" t="n"/>
     </row>
-    <row customHeight="1" ht="24" r="17" s="92" thickBot="1" thickTop="1">
+    <row r="17" ht="24" customHeight="1" s="92" thickBot="1" thickTop="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t>No.</t>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="18" s="81" thickTop="1">
+    <row r="18" ht="15.6" customFormat="1" customHeight="1" s="81" thickTop="1">
       <c r="A18" s="100" t="n">
         <v>1</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="19" s="81">
+    <row r="19" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A19" s="104" t="n">
         <v>2</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="20" s="81">
+    <row r="20" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A20" s="100" t="n">
         <v>3</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="21" s="81">
+    <row r="21" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A21" s="104" t="n">
         <v>4</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="22" s="81">
+    <row r="22" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A22" s="100" t="n">
         <v>5</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="23" s="81">
+    <row r="23" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A23" s="104" t="n">
         <v>6</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="24" s="81">
+    <row r="24" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A24" s="100" t="n">
         <v>7</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="25" s="81">
+    <row r="25" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A25" s="104" t="n">
         <v>8</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="26" s="81">
+    <row r="26" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A26" s="100" t="n">
         <v>9</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="27" s="81">
+    <row r="27" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A27" s="104" t="n">
         <v>10</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="28" s="81">
+    <row r="28" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A28" s="100" t="n">
         <v>11</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="29" s="81">
+    <row r="29" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A29" s="104" t="n">
         <v>12</v>
       </c>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="30" s="81">
+    <row r="30" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A30" s="100" t="n">
         <v>13</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="31" s="81">
+    <row r="31" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A31" s="104" t="n">
         <v>14</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="32" s="81">
+    <row r="32" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A32" s="100" t="n">
         <v>15</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="33" s="81">
+    <row r="33" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A33" s="104" t="n"/>
       <c r="B33" s="322" t="n"/>
       <c r="C33" s="310" t="n"/>
@@ -4364,7 +4364,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="34" s="81">
+    <row r="34" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A34" s="100" t="n"/>
       <c r="B34" s="322" t="n"/>
       <c r="C34" s="310" t="n"/>
@@ -4397,7 +4397,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="35" s="81">
+    <row r="35" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A35" s="104" t="n"/>
       <c r="B35" s="322" t="n"/>
       <c r="C35" s="310" t="n"/>
@@ -4430,7 +4430,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="36" s="81">
+    <row r="36" ht="15.6" customFormat="1" customHeight="1" s="81">
       <c r="A36" s="100" t="n"/>
       <c r="B36" s="322" t="n"/>
       <c r="C36" s="310" t="n"/>
@@ -4463,7 +4463,7 @@
         <v/>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.6" r="37" s="81" thickBot="1">
+    <row r="37" ht="15.6" customFormat="1" customHeight="1" s="81" thickBot="1">
       <c r="A37" s="108" t="n"/>
       <c r="B37" s="323" t="n"/>
       <c r="C37" s="314" t="n"/>
@@ -4496,7 +4496,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="38" s="92" thickTop="1">
+    <row r="38" ht="15.75" customHeight="1" s="92" thickTop="1">
       <c r="A38" s="85" t="n"/>
       <c r="B38" s="85" t="n"/>
       <c r="C38" s="86" t="n"/>
@@ -4556,7 +4556,7 @@
       <c r="BB38" s="91" t="n"/>
       <c r="BC38" s="91" t="n"/>
     </row>
-    <row customHeight="1" ht="15.75" r="39" s="92">
+    <row r="39" ht="15.75" customHeight="1" s="92">
       <c r="A39" s="238" t="inlineStr">
         <is>
           <t>Reviewed by:______________________  Date:_______________</t>
@@ -4681,8 +4681,8 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape" scale="97"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
+  <pageSetup orientation="landscape" scale="97" fitToHeight="0"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -4702,20 +4702,20 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC53" sqref="AC53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="65" min="1" style="115" width="1.7109375"/>
-    <col customWidth="1" max="66" min="66" style="115" width="1.85546875"/>
-    <col customWidth="1" hidden="1" max="67" min="67" style="115" width="0.28515625"/>
-    <col customWidth="1" hidden="1" max="76" min="68" style="115" width="1.7109375"/>
-    <col customWidth="1" max="16384" min="77" style="115" width="1.7109375"/>
+    <col width="1.7109375" customWidth="1" style="115" min="1" max="65"/>
+    <col width="1.85546875" customWidth="1" style="115" min="66" max="66"/>
+    <col hidden="1" width="0.28515625" customWidth="1" style="115" min="67" max="67"/>
+    <col hidden="1" width="1.7109375" customWidth="1" style="115" min="68" max="76"/>
+    <col width="1.7109375" customWidth="1" style="115" min="77" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
+    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
       <c r="A1" s="255" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -4794,7 +4794,7 @@
       <c r="BX1" s="262" t="n"/>
       <c r="BY1" s="262" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
+    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A2" s="116" t="n"/>
       <c r="B2" s="117" t="n"/>
       <c r="C2" s="117" t="n"/>
@@ -4873,7 +4873,7 @@
       <c r="BX2" s="117" t="n"/>
       <c r="BY2" s="118" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="3" s="92">
+    <row r="3" ht="12" customHeight="1" s="92">
       <c r="A3" s="119" t="n"/>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="121" t="n"/>
@@ -4952,7 +4952,7 @@
       <c r="BX3" s="121" t="n"/>
       <c r="BY3" s="122" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="4" s="92">
+    <row r="4" ht="12" customHeight="1" s="92">
       <c r="A4" s="119" t="n"/>
       <c r="B4" s="121" t="n"/>
       <c r="C4" s="121" t="n"/>
@@ -5031,7 +5031,7 @@
       <c r="BX4" s="121" t="n"/>
       <c r="BY4" s="122" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="5" s="92">
+    <row r="5" ht="12" customHeight="1" s="92">
       <c r="A5" s="123" t="n"/>
       <c r="AW5" s="124" t="n"/>
       <c r="AX5" s="124" t="n"/>
@@ -5049,7 +5049,7 @@
       <c r="BJ5" s="124" t="n"/>
       <c r="BY5" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="6" s="92">
+    <row r="6" ht="12" customHeight="1" s="92">
       <c r="A6" s="123" t="n"/>
       <c r="AW6" s="124" t="n"/>
       <c r="AX6" s="124" t="n"/>
@@ -5067,7 +5067,7 @@
       <c r="BJ6" s="124" t="n"/>
       <c r="BY6" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="7" s="92">
+    <row r="7" ht="12" customHeight="1" s="92">
       <c r="A7" s="123" t="n"/>
       <c r="V7" s="124" t="n"/>
       <c r="W7" s="124" t="n"/>
@@ -5101,7 +5101,7 @@
       <c r="BJ7" s="126" t="n"/>
       <c r="BY7" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="8" s="92">
+    <row r="8" ht="12" customHeight="1" s="92">
       <c r="A8" s="123" t="n"/>
       <c r="V8" s="124" t="n"/>
       <c r="W8" s="124" t="n"/>
@@ -5135,7 +5135,7 @@
       <c r="BJ8" s="126" t="n"/>
       <c r="BY8" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="9" s="92">
+    <row r="9" ht="12" customHeight="1" s="92">
       <c r="A9" s="123" t="n"/>
       <c r="V9" s="126" t="n"/>
       <c r="W9" s="126" t="n"/>
@@ -5155,7 +5155,7 @@
       <c r="AK9" s="126" t="n"/>
       <c r="BY9" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="10" s="92">
+    <row r="10" ht="12" customHeight="1" s="92">
       <c r="A10" s="123" t="n"/>
       <c r="V10" s="126" t="n"/>
       <c r="W10" s="126" t="n"/>
@@ -5175,7 +5175,7 @@
       <c r="AK10" s="126" t="n"/>
       <c r="BY10" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="11" s="92">
+    <row r="11" ht="12" customHeight="1" s="92">
       <c r="A11" s="123" t="n"/>
       <c r="V11" s="126" t="n"/>
       <c r="W11" s="126" t="n"/>
@@ -5195,19 +5195,19 @@
       <c r="AK11" s="126" t="n"/>
       <c r="BY11" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="12" s="92">
+    <row r="12" ht="12" customHeight="1" s="92">
       <c r="A12" s="123" t="n"/>
       <c r="BY12" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="13" s="92">
+    <row r="13" ht="12" customHeight="1" s="92">
       <c r="A13" s="123" t="n"/>
       <c r="BY13" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="14" s="92">
+    <row r="14" ht="12" customHeight="1" s="92">
       <c r="A14" s="123" t="n"/>
       <c r="BY14" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="15" s="92">
+    <row r="15" ht="12" customHeight="1" s="92">
       <c r="A15" s="123" t="n"/>
       <c r="BY15" s="125" t="n"/>
       <c r="CP15" s="127" t="n"/>
@@ -5230,7 +5230,7 @@
       <c r="DG15" s="127" t="n"/>
       <c r="DH15" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="16" s="92">
+    <row r="16" ht="12" customHeight="1" s="92">
       <c r="A16" s="123" t="n"/>
       <c r="BY16" s="125" t="n"/>
       <c r="CP16" s="127" t="n"/>
@@ -5253,7 +5253,7 @@
       <c r="DG16" s="127" t="n"/>
       <c r="DH16" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="17" s="92">
+    <row r="17" ht="12" customHeight="1" s="92">
       <c r="A17" s="123" t="n"/>
       <c r="BY17" s="125" t="n"/>
       <c r="CP17" s="127" t="n"/>
@@ -5276,7 +5276,7 @@
       <c r="DG17" s="127" t="n"/>
       <c r="DH17" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="18" s="92">
+    <row r="18" ht="12" customHeight="1" s="92">
       <c r="A18" s="123" t="n"/>
       <c r="BY18" s="125" t="n"/>
       <c r="CP18" s="127" t="n"/>
@@ -5299,7 +5299,7 @@
       <c r="DG18" s="127" t="n"/>
       <c r="DH18" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="19" s="92">
+    <row r="19" ht="12" customHeight="1" s="92">
       <c r="A19" s="123" t="n"/>
       <c r="BY19" s="125" t="n"/>
       <c r="CP19" s="127" t="n"/>
@@ -5322,7 +5322,7 @@
       <c r="DG19" s="127" t="n"/>
       <c r="DH19" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="20" s="92">
+    <row r="20" ht="12" customHeight="1" s="92">
       <c r="A20" s="123" t="n"/>
       <c r="BY20" s="125" t="n"/>
       <c r="CP20" s="127" t="n"/>
@@ -5345,7 +5345,7 @@
       <c r="DG20" s="127" t="n"/>
       <c r="DH20" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="21" s="92">
+    <row r="21" ht="12" customHeight="1" s="92">
       <c r="A21" s="123" t="n"/>
       <c r="BY21" s="125" t="n"/>
       <c r="CP21" s="127" t="n"/>
@@ -5368,7 +5368,7 @@
       <c r="DG21" s="127" t="n"/>
       <c r="DH21" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="22" s="92">
+    <row r="22" ht="12" customHeight="1" s="92">
       <c r="A22" s="123" t="n"/>
       <c r="BY22" s="125" t="n"/>
       <c r="CP22" s="127" t="n"/>
@@ -5391,7 +5391,7 @@
       <c r="DG22" s="127" t="n"/>
       <c r="DH22" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="23" s="92">
+    <row r="23" ht="12" customHeight="1" s="92">
       <c r="A23" s="123" t="n"/>
       <c r="AL23" s="124" t="n"/>
       <c r="AM23" s="124" t="n"/>
@@ -5424,7 +5424,7 @@
       <c r="DG23" s="127" t="n"/>
       <c r="DH23" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="24" s="92">
+    <row r="24" ht="12" customHeight="1" s="92">
       <c r="A24" s="123" t="n"/>
       <c r="J24" s="124" t="n"/>
       <c r="K24" s="124" t="n"/>
@@ -5452,7 +5452,7 @@
       <c r="AU24" s="124" t="n"/>
       <c r="BY24" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="25" s="92">
+    <row r="25" ht="12" customHeight="1" s="92">
       <c r="A25" s="123" t="n"/>
       <c r="J25" s="124" t="n"/>
       <c r="K25" s="124" t="n"/>
@@ -5480,7 +5480,7 @@
       <c r="AU25" s="126" t="n"/>
       <c r="BY25" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="26" s="92">
+    <row r="26" ht="12" customHeight="1" s="92">
       <c r="A26" s="123" t="n"/>
       <c r="BC26" s="124" t="n"/>
       <c r="BD26" s="124" t="n"/>
@@ -5498,7 +5498,7 @@
       <c r="BP26" s="124" t="n"/>
       <c r="BY26" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="27" s="92">
+    <row r="27" ht="12" customHeight="1" s="92">
       <c r="A27" s="123" t="n"/>
       <c r="B27" s="127" t="n"/>
       <c r="C27" s="127" t="n"/>
@@ -5540,7 +5540,7 @@
       <c r="BP27" s="124" t="n"/>
       <c r="BY27" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="28" s="92">
+    <row r="28" ht="12" customHeight="1" s="92">
       <c r="A28" s="123" t="n"/>
       <c r="B28" s="127" t="n"/>
       <c r="C28" s="127" t="n"/>
@@ -5582,7 +5582,7 @@
       <c r="BP28" s="124" t="n"/>
       <c r="BY28" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="29" s="92">
+    <row r="29" ht="12" customHeight="1" s="92">
       <c r="A29" s="123" t="n"/>
       <c r="B29" s="127" t="n"/>
       <c r="C29" s="127" t="n"/>
@@ -5624,7 +5624,7 @@
       <c r="BP29" s="124" t="n"/>
       <c r="BY29" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="30" s="92">
+    <row r="30" ht="12" customHeight="1" s="92">
       <c r="A30" s="123" t="n"/>
       <c r="B30" s="127" t="n"/>
       <c r="C30" s="127" t="n"/>
@@ -5666,7 +5666,7 @@
       <c r="BP30" s="126" t="n"/>
       <c r="BY30" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="31" s="92">
+    <row r="31" ht="12" customHeight="1" s="92">
       <c r="A31" s="123" t="n"/>
       <c r="B31" s="127" t="n"/>
       <c r="C31" s="127" t="n"/>
@@ -5708,7 +5708,7 @@
       <c r="BP31" s="126" t="n"/>
       <c r="BY31" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="32" s="92">
+    <row r="32" ht="12" customHeight="1" s="92">
       <c r="A32" s="123" t="n"/>
       <c r="B32" s="127" t="n"/>
       <c r="C32" s="127" t="n"/>
@@ -5736,7 +5736,7 @@
       <c r="Y32" s="129" t="n"/>
       <c r="BY32" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="33" s="92">
+    <row r="33" ht="12" customHeight="1" s="92">
       <c r="A33" s="123" t="n"/>
       <c r="B33" s="127" t="n"/>
       <c r="C33" s="127" t="n"/>
@@ -5797,7 +5797,7 @@
       <c r="BS33" s="131" t="n"/>
       <c r="BY33" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="34" s="92">
+    <row r="34" ht="12" customHeight="1" s="92">
       <c r="A34" s="123" t="n"/>
       <c r="B34" s="127" t="n"/>
       <c r="C34" s="127" t="n"/>
@@ -5858,7 +5858,7 @@
       <c r="BS34" s="131" t="n"/>
       <c r="BY34" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="35" s="92">
+    <row r="35" ht="12" customHeight="1" s="92">
       <c r="A35" s="123" t="n"/>
       <c r="B35" s="127" t="n"/>
       <c r="C35" s="127" t="n"/>
@@ -5885,7 +5885,7 @@
       <c r="X35" s="127" t="n"/>
       <c r="BY35" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="36" s="92">
+    <row r="36" ht="12" customHeight="1" s="92">
       <c r="A36" s="123" t="n"/>
       <c r="B36" s="127" t="n"/>
       <c r="C36" s="127" t="n"/>
@@ -5912,7 +5912,7 @@
       <c r="X36" s="127" t="n"/>
       <c r="BY36" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
+    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A37" s="133" t="n"/>
       <c r="B37" s="134" t="n"/>
       <c r="C37" s="134" t="n"/>
@@ -5991,7 +5991,7 @@
       <c r="BX37" s="134" t="n"/>
       <c r="BY37" s="135" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
+    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A38" s="324" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -6078,7 +6078,7 @@
       <c r="BX38" s="136" t="n"/>
       <c r="BY38" s="139" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="39" s="92">
+    <row r="39" ht="12" customHeight="1" s="92">
       <c r="A39" s="326" t="inlineStr">
         <is>
           <t>Date</t>
@@ -6137,7 +6137,7 @@
       <c r="BX39" s="140" t="n"/>
       <c r="BY39" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="40" s="92">
+    <row r="40" ht="12" customHeight="1" s="92">
       <c r="A40" s="326" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -6198,7 +6198,7 @@
       <c r="BX40" s="140" t="n"/>
       <c r="BY40" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="41" s="92">
+    <row r="41" ht="12" customHeight="1" s="92">
       <c r="A41" s="326" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -6259,7 +6259,7 @@
       <c r="BX41" s="140" t="n"/>
       <c r="BY41" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="42" s="92">
+    <row r="42" ht="12" customHeight="1" s="92">
       <c r="A42" s="326" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -6318,7 +6318,7 @@
       <c r="BX42" s="144" t="n"/>
       <c r="BY42" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="43" s="92">
+    <row r="43" ht="12" customHeight="1" s="92">
       <c r="A43" s="326" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -6379,7 +6379,7 @@
       <c r="BX43" s="144" t="n"/>
       <c r="BY43" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="44" s="92">
+    <row r="44" ht="12" customHeight="1" s="92">
       <c r="A44" s="326" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -6440,7 +6440,7 @@
       <c r="BX44" s="140" t="n"/>
       <c r="BY44" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
+    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A45" s="329" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -6523,15 +6523,15 @@
       <c r="BX45" s="146" t="n"/>
       <c r="BY45" s="147" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
     <row r="47"/>
     <row r="48"/>
     <row r="49"/>
-    <row customHeight="1" ht="12" r="51" s="92">
+    <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="52" s="92">
+    <row r="52" ht="12" customHeight="1" s="92">
       <c r="A52" s="148" t="n"/>
       <c r="B52" s="127" t="n"/>
     </row>
@@ -6556,8 +6556,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
+  <pageSetup orientation="landscape" fitToHeight="0"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -6577,20 +6577,20 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="CM20" sqref="CM20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="65" min="1" style="115" width="1.7109375"/>
-    <col customWidth="1" max="66" min="66" style="115" width="1.5703125"/>
-    <col customWidth="1" hidden="1" max="75" min="67" style="115" width="1.7109375"/>
-    <col customWidth="1" max="76" min="76" style="115" width="0.42578125"/>
-    <col customWidth="1" max="16384" min="77" style="115" width="1.7109375"/>
+    <col width="1.7109375" customWidth="1" style="115" min="1" max="65"/>
+    <col width="1.5703125" customWidth="1" style="115" min="66" max="66"/>
+    <col hidden="1" width="1.7109375" customWidth="1" style="115" min="67" max="75"/>
+    <col width="0.42578125" customWidth="1" style="115" min="76" max="76"/>
+    <col width="1.7109375" customWidth="1" style="115" min="77" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
+    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
       <c r="A1" s="255" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -6669,7 +6669,7 @@
       <c r="BX1" s="262" t="n"/>
       <c r="BY1" s="262" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
+    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A2" s="116" t="n"/>
       <c r="B2" s="117" t="n"/>
       <c r="C2" s="117" t="n"/>
@@ -6748,7 +6748,7 @@
       <c r="BX2" s="117" t="n"/>
       <c r="BY2" s="118" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="3" s="92">
+    <row r="3" ht="12" customHeight="1" s="92">
       <c r="A3" s="119" t="n"/>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="121" t="n"/>
@@ -6827,7 +6827,7 @@
       <c r="BX3" s="121" t="n"/>
       <c r="BY3" s="122" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="4" s="92">
+    <row r="4" ht="12" customHeight="1" s="92">
       <c r="A4" s="119" t="n"/>
       <c r="B4" s="121" t="n"/>
       <c r="C4" s="121" t="n"/>
@@ -6906,7 +6906,7 @@
       <c r="BX4" s="121" t="n"/>
       <c r="BY4" s="122" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="5" s="92">
+    <row r="5" ht="12" customHeight="1" s="92">
       <c r="A5" s="123" t="n"/>
       <c r="AW5" s="124" t="n"/>
       <c r="AX5" s="124" t="n"/>
@@ -6924,7 +6924,7 @@
       <c r="BJ5" s="124" t="n"/>
       <c r="BY5" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="6" s="92">
+    <row r="6" ht="12" customHeight="1" s="92">
       <c r="A6" s="123" t="n"/>
       <c r="AW6" s="124" t="n"/>
       <c r="AX6" s="124" t="n"/>
@@ -6942,7 +6942,7 @@
       <c r="BJ6" s="124" t="n"/>
       <c r="BY6" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="7" s="92">
+    <row r="7" ht="12" customHeight="1" s="92">
       <c r="A7" s="123" t="n"/>
       <c r="V7" s="124" t="n"/>
       <c r="W7" s="124" t="n"/>
@@ -6976,7 +6976,7 @@
       <c r="BJ7" s="126" t="n"/>
       <c r="BY7" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="8" s="92">
+    <row r="8" ht="12" customHeight="1" s="92">
       <c r="A8" s="123" t="n"/>
       <c r="V8" s="124" t="n"/>
       <c r="W8" s="124" t="n"/>
@@ -7010,7 +7010,7 @@
       <c r="BJ8" s="126" t="n"/>
       <c r="BY8" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="9" s="92">
+    <row r="9" ht="12" customHeight="1" s="92">
       <c r="A9" s="123" t="n"/>
       <c r="V9" s="126" t="n"/>
       <c r="W9" s="126" t="n"/>
@@ -7030,7 +7030,7 @@
       <c r="AK9" s="126" t="n"/>
       <c r="BY9" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="10" s="92">
+    <row r="10" ht="12" customHeight="1" s="92">
       <c r="A10" s="123" t="n"/>
       <c r="V10" s="126" t="n"/>
       <c r="W10" s="126" t="n"/>
@@ -7050,7 +7050,7 @@
       <c r="AK10" s="126" t="n"/>
       <c r="BY10" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="11" s="92">
+    <row r="11" ht="12" customHeight="1" s="92">
       <c r="A11" s="123" t="n"/>
       <c r="V11" s="126" t="n"/>
       <c r="W11" s="126" t="n"/>
@@ -7070,19 +7070,19 @@
       <c r="AK11" s="126" t="n"/>
       <c r="BY11" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="12" s="92">
+    <row r="12" ht="12" customHeight="1" s="92">
       <c r="A12" s="123" t="n"/>
       <c r="BY12" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="13" s="92">
+    <row r="13" ht="12" customHeight="1" s="92">
       <c r="A13" s="123" t="n"/>
       <c r="BY13" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="14" s="92">
+    <row r="14" ht="12" customHeight="1" s="92">
       <c r="A14" s="123" t="n"/>
       <c r="BY14" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="15" s="92">
+    <row r="15" ht="12" customHeight="1" s="92">
       <c r="A15" s="123" t="n"/>
       <c r="BY15" s="125" t="n"/>
       <c r="CP15" s="127" t="n"/>
@@ -7105,7 +7105,7 @@
       <c r="DG15" s="127" t="n"/>
       <c r="DH15" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="16" s="92">
+    <row r="16" ht="12" customHeight="1" s="92">
       <c r="A16" s="123" t="n"/>
       <c r="BY16" s="125" t="n"/>
       <c r="CP16" s="127" t="n"/>
@@ -7128,7 +7128,7 @@
       <c r="DG16" s="127" t="n"/>
       <c r="DH16" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="17" s="92">
+    <row r="17" ht="12" customHeight="1" s="92">
       <c r="A17" s="123" t="n"/>
       <c r="BY17" s="125" t="n"/>
       <c r="CP17" s="127" t="n"/>
@@ -7151,7 +7151,7 @@
       <c r="DG17" s="127" t="n"/>
       <c r="DH17" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="18" s="92">
+    <row r="18" ht="12" customHeight="1" s="92">
       <c r="A18" s="123" t="n"/>
       <c r="BY18" s="125" t="n"/>
       <c r="CP18" s="127" t="n"/>
@@ -7174,7 +7174,7 @@
       <c r="DG18" s="127" t="n"/>
       <c r="DH18" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="19" s="92">
+    <row r="19" ht="12" customHeight="1" s="92">
       <c r="A19" s="123" t="n"/>
       <c r="BY19" s="125" t="n"/>
       <c r="CP19" s="127" t="n"/>
@@ -7197,7 +7197,7 @@
       <c r="DG19" s="127" t="n"/>
       <c r="DH19" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="20" s="92">
+    <row r="20" ht="12" customHeight="1" s="92">
       <c r="A20" s="123" t="n"/>
       <c r="BY20" s="125" t="n"/>
       <c r="CP20" s="127" t="n"/>
@@ -7220,7 +7220,7 @@
       <c r="DG20" s="127" t="n"/>
       <c r="DH20" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="21" s="92">
+    <row r="21" ht="12" customHeight="1" s="92">
       <c r="A21" s="123" t="n"/>
       <c r="BY21" s="125" t="n"/>
       <c r="CP21" s="127" t="n"/>
@@ -7243,7 +7243,7 @@
       <c r="DG21" s="127" t="n"/>
       <c r="DH21" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="22" s="92">
+    <row r="22" ht="12" customHeight="1" s="92">
       <c r="A22" s="123" t="n"/>
       <c r="BY22" s="125" t="n"/>
       <c r="CP22" s="127" t="n"/>
@@ -7266,7 +7266,7 @@
       <c r="DG22" s="127" t="n"/>
       <c r="DH22" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="23" s="92">
+    <row r="23" ht="12" customHeight="1" s="92">
       <c r="A23" s="123" t="n"/>
       <c r="AL23" s="124" t="n"/>
       <c r="AM23" s="124" t="n"/>
@@ -7299,7 +7299,7 @@
       <c r="DG23" s="127" t="n"/>
       <c r="DH23" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="24" s="92">
+    <row r="24" ht="12" customHeight="1" s="92">
       <c r="A24" s="123" t="n"/>
       <c r="J24" s="124" t="n"/>
       <c r="K24" s="124" t="n"/>
@@ -7327,7 +7327,7 @@
       <c r="AU24" s="124" t="n"/>
       <c r="BY24" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="25" s="92">
+    <row r="25" ht="12" customHeight="1" s="92">
       <c r="A25" s="123" t="n"/>
       <c r="J25" s="124" t="n"/>
       <c r="K25" s="124" t="n"/>
@@ -7355,7 +7355,7 @@
       <c r="AU25" s="126" t="n"/>
       <c r="BY25" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="26" s="92">
+    <row r="26" ht="12" customHeight="1" s="92">
       <c r="A26" s="123" t="n"/>
       <c r="BC26" s="124" t="n"/>
       <c r="BD26" s="124" t="n"/>
@@ -7373,7 +7373,7 @@
       <c r="BP26" s="124" t="n"/>
       <c r="BY26" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="27" s="92">
+    <row r="27" ht="12" customHeight="1" s="92">
       <c r="A27" s="123" t="n"/>
       <c r="B27" s="127" t="n"/>
       <c r="C27" s="127" t="n"/>
@@ -7415,7 +7415,7 @@
       <c r="BP27" s="124" t="n"/>
       <c r="BY27" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="28" s="92">
+    <row r="28" ht="12" customHeight="1" s="92">
       <c r="A28" s="123" t="n"/>
       <c r="B28" s="127" t="n"/>
       <c r="C28" s="127" t="n"/>
@@ -7457,7 +7457,7 @@
       <c r="BP28" s="124" t="n"/>
       <c r="BY28" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="29" s="92">
+    <row r="29" ht="12" customHeight="1" s="92">
       <c r="A29" s="123" t="n"/>
       <c r="B29" s="127" t="n"/>
       <c r="C29" s="127" t="n"/>
@@ -7499,7 +7499,7 @@
       <c r="BP29" s="124" t="n"/>
       <c r="BY29" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="30" s="92">
+    <row r="30" ht="12" customHeight="1" s="92">
       <c r="A30" s="123" t="n"/>
       <c r="B30" s="127" t="n"/>
       <c r="C30" s="127" t="n"/>
@@ -7541,7 +7541,7 @@
       <c r="BP30" s="126" t="n"/>
       <c r="BY30" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="31" s="92">
+    <row r="31" ht="12" customHeight="1" s="92">
       <c r="A31" s="123" t="n"/>
       <c r="B31" s="127" t="n"/>
       <c r="C31" s="127" t="n"/>
@@ -7583,7 +7583,7 @@
       <c r="BP31" s="126" t="n"/>
       <c r="BY31" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="32" s="92">
+    <row r="32" ht="12" customHeight="1" s="92">
       <c r="A32" s="123" t="n"/>
       <c r="B32" s="127" t="n"/>
       <c r="C32" s="127" t="n"/>
@@ -7611,7 +7611,7 @@
       <c r="Y32" s="129" t="n"/>
       <c r="BY32" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="33" s="92">
+    <row r="33" ht="12" customHeight="1" s="92">
       <c r="A33" s="123" t="n"/>
       <c r="B33" s="127" t="n"/>
       <c r="C33" s="127" t="n"/>
@@ -7672,7 +7672,7 @@
       <c r="BS33" s="131" t="n"/>
       <c r="BY33" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="34" s="92">
+    <row r="34" ht="12" customHeight="1" s="92">
       <c r="A34" s="123" t="n"/>
       <c r="B34" s="127" t="n"/>
       <c r="C34" s="127" t="n"/>
@@ -7733,7 +7733,7 @@
       <c r="BS34" s="131" t="n"/>
       <c r="BY34" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="35" s="92">
+    <row r="35" ht="12" customHeight="1" s="92">
       <c r="A35" s="123" t="n"/>
       <c r="B35" s="127" t="n"/>
       <c r="C35" s="127" t="n"/>
@@ -7760,7 +7760,7 @@
       <c r="X35" s="127" t="n"/>
       <c r="BY35" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="36" s="92">
+    <row r="36" ht="12" customHeight="1" s="92">
       <c r="A36" s="123" t="n"/>
       <c r="B36" s="127" t="n"/>
       <c r="C36" s="127" t="n"/>
@@ -7787,7 +7787,7 @@
       <c r="X36" s="127" t="n"/>
       <c r="BY36" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
+    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A37" s="133" t="n"/>
       <c r="B37" s="134" t="n"/>
       <c r="C37" s="134" t="n"/>
@@ -7866,7 +7866,7 @@
       <c r="BX37" s="134" t="n"/>
       <c r="BY37" s="135" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
+    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A38" s="324" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -7953,7 +7953,7 @@
       <c r="BX38" s="136" t="n"/>
       <c r="BY38" s="139" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="39" s="92">
+    <row r="39" ht="12" customHeight="1" s="92">
       <c r="A39" s="326" t="inlineStr">
         <is>
           <t>Date</t>
@@ -8012,7 +8012,7 @@
       <c r="BX39" s="140" t="n"/>
       <c r="BY39" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="40" s="92">
+    <row r="40" ht="12" customHeight="1" s="92">
       <c r="A40" s="326" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -8073,7 +8073,7 @@
       <c r="BX40" s="140" t="n"/>
       <c r="BY40" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="41" s="92">
+    <row r="41" ht="12" customHeight="1" s="92">
       <c r="A41" s="326" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -8134,7 +8134,7 @@
       <c r="BX41" s="140" t="n"/>
       <c r="BY41" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="42" s="92">
+    <row r="42" ht="12" customHeight="1" s="92">
       <c r="A42" s="326" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -8193,7 +8193,7 @@
       <c r="BX42" s="144" t="n"/>
       <c r="BY42" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="43" s="92">
+    <row r="43" ht="12" customHeight="1" s="92">
       <c r="A43" s="326" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -8254,7 +8254,7 @@
       <c r="BX43" s="144" t="n"/>
       <c r="BY43" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="44" s="92">
+    <row r="44" ht="12" customHeight="1" s="92">
       <c r="A44" s="326" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -8315,7 +8315,7 @@
       <c r="BX44" s="140" t="n"/>
       <c r="BY44" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
+    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A45" s="329" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -8398,15 +8398,15 @@
       <c r="BX45" s="146" t="n"/>
       <c r="BY45" s="147" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
     <row r="47"/>
     <row r="48"/>
     <row r="49"/>
-    <row customHeight="1" ht="12" r="51" s="92">
+    <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="52" s="92">
+    <row r="52" ht="12" customHeight="1" s="92">
       <c r="A52" s="148" t="n"/>
       <c r="B52" s="127" t="n"/>
     </row>
@@ -8431,8 +8431,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
+  <pageSetup orientation="landscape" fitToHeight="0"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -8452,20 +8452,20 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="DA24" sqref="DA24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="65" min="1" style="115" width="1.7109375"/>
-    <col customWidth="1" max="66" min="66" style="115" width="1.7109375"/>
-    <col customWidth="1" max="67" min="67" style="115" width="0.140625"/>
-    <col customWidth="1" hidden="1" max="76" min="68" style="115" width="1.7109375"/>
-    <col customWidth="1" max="16384" min="77" style="115" width="1.7109375"/>
+    <col width="1.7109375" customWidth="1" style="115" min="1" max="65"/>
+    <col width="1.7109375" customWidth="1" style="115" min="66" max="66"/>
+    <col width="0.140625" customWidth="1" style="115" min="67" max="67"/>
+    <col hidden="1" width="1.7109375" customWidth="1" style="115" min="68" max="76"/>
+    <col width="1.7109375" customWidth="1" style="115" min="77" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
+    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
       <c r="A1" s="255" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -8544,7 +8544,7 @@
       <c r="BX1" s="262" t="n"/>
       <c r="BY1" s="262" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
+    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A2" s="116" t="n"/>
       <c r="B2" s="117" t="n"/>
       <c r="C2" s="117" t="n"/>
@@ -8623,7 +8623,7 @@
       <c r="BX2" s="117" t="n"/>
       <c r="BY2" s="118" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="3" s="92">
+    <row r="3" ht="12" customHeight="1" s="92">
       <c r="A3" s="119" t="n"/>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="121" t="n"/>
@@ -8702,7 +8702,7 @@
       <c r="BX3" s="121" t="n"/>
       <c r="BY3" s="122" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="4" s="92">
+    <row r="4" ht="12" customHeight="1" s="92">
       <c r="A4" s="119" t="n"/>
       <c r="B4" s="121" t="n"/>
       <c r="C4" s="121" t="n"/>
@@ -8781,7 +8781,7 @@
       <c r="BX4" s="121" t="n"/>
       <c r="BY4" s="122" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="5" s="92">
+    <row r="5" ht="12" customHeight="1" s="92">
       <c r="A5" s="123" t="n"/>
       <c r="AW5" s="124" t="n"/>
       <c r="AX5" s="124" t="n"/>
@@ -8799,7 +8799,7 @@
       <c r="BJ5" s="124" t="n"/>
       <c r="BY5" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="6" s="92">
+    <row r="6" ht="12" customHeight="1" s="92">
       <c r="A6" s="123" t="n"/>
       <c r="AW6" s="124" t="n"/>
       <c r="AX6" s="124" t="n"/>
@@ -8817,7 +8817,7 @@
       <c r="BJ6" s="124" t="n"/>
       <c r="BY6" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="7" s="92">
+    <row r="7" ht="12" customHeight="1" s="92">
       <c r="A7" s="123" t="n"/>
       <c r="V7" s="124" t="n"/>
       <c r="W7" s="124" t="n"/>
@@ -8851,7 +8851,7 @@
       <c r="BJ7" s="126" t="n"/>
       <c r="BY7" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="8" s="92">
+    <row r="8" ht="12" customHeight="1" s="92">
       <c r="A8" s="123" t="n"/>
       <c r="V8" s="124" t="n"/>
       <c r="W8" s="124" t="n"/>
@@ -8885,7 +8885,7 @@
       <c r="BJ8" s="126" t="n"/>
       <c r="BY8" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="9" s="92">
+    <row r="9" ht="12" customHeight="1" s="92">
       <c r="A9" s="123" t="n"/>
       <c r="V9" s="126" t="n"/>
       <c r="W9" s="126" t="n"/>
@@ -8905,7 +8905,7 @@
       <c r="AK9" s="126" t="n"/>
       <c r="BY9" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="10" s="92">
+    <row r="10" ht="12" customHeight="1" s="92">
       <c r="A10" s="123" t="n"/>
       <c r="V10" s="126" t="n"/>
       <c r="W10" s="126" t="n"/>
@@ -8925,7 +8925,7 @@
       <c r="AK10" s="126" t="n"/>
       <c r="BY10" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="11" s="92">
+    <row r="11" ht="12" customHeight="1" s="92">
       <c r="A11" s="123" t="n"/>
       <c r="V11" s="126" t="n"/>
       <c r="W11" s="126" t="n"/>
@@ -8945,19 +8945,19 @@
       <c r="AK11" s="126" t="n"/>
       <c r="BY11" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="12" s="92">
+    <row r="12" ht="12" customHeight="1" s="92">
       <c r="A12" s="123" t="n"/>
       <c r="BY12" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="13" s="92">
+    <row r="13" ht="12" customHeight="1" s="92">
       <c r="A13" s="123" t="n"/>
       <c r="BY13" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="14" s="92">
+    <row r="14" ht="12" customHeight="1" s="92">
       <c r="A14" s="123" t="n"/>
       <c r="BY14" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="15" s="92">
+    <row r="15" ht="12" customHeight="1" s="92">
       <c r="A15" s="123" t="n"/>
       <c r="BY15" s="125" t="n"/>
       <c r="CP15" s="127" t="n"/>
@@ -8980,7 +8980,7 @@
       <c r="DG15" s="127" t="n"/>
       <c r="DH15" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="16" s="92">
+    <row r="16" ht="12" customHeight="1" s="92">
       <c r="A16" s="123" t="n"/>
       <c r="BY16" s="125" t="n"/>
       <c r="CP16" s="127" t="n"/>
@@ -9003,7 +9003,7 @@
       <c r="DG16" s="127" t="n"/>
       <c r="DH16" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="17" s="92">
+    <row r="17" ht="12" customHeight="1" s="92">
       <c r="A17" s="123" t="n"/>
       <c r="BY17" s="125" t="n"/>
       <c r="CP17" s="127" t="n"/>
@@ -9026,7 +9026,7 @@
       <c r="DG17" s="127" t="n"/>
       <c r="DH17" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="18" s="92">
+    <row r="18" ht="12" customHeight="1" s="92">
       <c r="A18" s="123" t="n"/>
       <c r="BY18" s="125" t="n"/>
       <c r="CP18" s="127" t="n"/>
@@ -9049,7 +9049,7 @@
       <c r="DG18" s="127" t="n"/>
       <c r="DH18" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="19" s="92">
+    <row r="19" ht="12" customHeight="1" s="92">
       <c r="A19" s="123" t="n"/>
       <c r="BY19" s="125" t="n"/>
       <c r="CP19" s="127" t="n"/>
@@ -9072,7 +9072,7 @@
       <c r="DG19" s="127" t="n"/>
       <c r="DH19" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="20" s="92">
+    <row r="20" ht="12" customHeight="1" s="92">
       <c r="A20" s="123" t="n"/>
       <c r="BY20" s="125" t="n"/>
       <c r="CP20" s="127" t="n"/>
@@ -9095,7 +9095,7 @@
       <c r="DG20" s="127" t="n"/>
       <c r="DH20" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="21" s="92">
+    <row r="21" ht="12" customHeight="1" s="92">
       <c r="A21" s="123" t="n"/>
       <c r="BY21" s="125" t="n"/>
       <c r="CP21" s="127" t="n"/>
@@ -9118,7 +9118,7 @@
       <c r="DG21" s="127" t="n"/>
       <c r="DH21" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="22" s="92">
+    <row r="22" ht="12" customHeight="1" s="92">
       <c r="A22" s="123" t="n"/>
       <c r="BY22" s="125" t="n"/>
       <c r="CP22" s="127" t="n"/>
@@ -9141,7 +9141,7 @@
       <c r="DG22" s="127" t="n"/>
       <c r="DH22" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="23" s="92">
+    <row r="23" ht="12" customHeight="1" s="92">
       <c r="A23" s="123" t="n"/>
       <c r="AL23" s="124" t="n"/>
       <c r="AM23" s="124" t="n"/>
@@ -9174,7 +9174,7 @@
       <c r="DG23" s="127" t="n"/>
       <c r="DH23" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="24" s="92">
+    <row r="24" ht="12" customHeight="1" s="92">
       <c r="A24" s="123" t="n"/>
       <c r="J24" s="124" t="n"/>
       <c r="K24" s="124" t="n"/>
@@ -9202,7 +9202,7 @@
       <c r="AU24" s="124" t="n"/>
       <c r="BY24" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="25" s="92">
+    <row r="25" ht="12" customHeight="1" s="92">
       <c r="A25" s="123" t="n"/>
       <c r="J25" s="124" t="n"/>
       <c r="K25" s="124" t="n"/>
@@ -9230,7 +9230,7 @@
       <c r="AU25" s="126" t="n"/>
       <c r="BY25" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="26" s="92">
+    <row r="26" ht="12" customHeight="1" s="92">
       <c r="A26" s="123" t="n"/>
       <c r="BC26" s="124" t="n"/>
       <c r="BD26" s="124" t="n"/>
@@ -9248,7 +9248,7 @@
       <c r="BP26" s="124" t="n"/>
       <c r="BY26" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="27" s="92">
+    <row r="27" ht="12" customHeight="1" s="92">
       <c r="A27" s="123" t="n"/>
       <c r="B27" s="127" t="n"/>
       <c r="C27" s="127" t="n"/>
@@ -9290,7 +9290,7 @@
       <c r="BP27" s="124" t="n"/>
       <c r="BY27" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="28" s="92">
+    <row r="28" ht="12" customHeight="1" s="92">
       <c r="A28" s="123" t="n"/>
       <c r="B28" s="127" t="n"/>
       <c r="C28" s="127" t="n"/>
@@ -9332,7 +9332,7 @@
       <c r="BP28" s="124" t="n"/>
       <c r="BY28" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="29" s="92">
+    <row r="29" ht="12" customHeight="1" s="92">
       <c r="A29" s="123" t="n"/>
       <c r="B29" s="127" t="n"/>
       <c r="C29" s="127" t="n"/>
@@ -9374,7 +9374,7 @@
       <c r="BP29" s="124" t="n"/>
       <c r="BY29" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="30" s="92">
+    <row r="30" ht="12" customHeight="1" s="92">
       <c r="A30" s="123" t="n"/>
       <c r="B30" s="127" t="n"/>
       <c r="C30" s="127" t="n"/>
@@ -9416,7 +9416,7 @@
       <c r="BP30" s="126" t="n"/>
       <c r="BY30" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="31" s="92">
+    <row r="31" ht="12" customHeight="1" s="92">
       <c r="A31" s="123" t="n"/>
       <c r="B31" s="127" t="n"/>
       <c r="C31" s="127" t="n"/>
@@ -9458,7 +9458,7 @@
       <c r="BP31" s="126" t="n"/>
       <c r="BY31" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="32" s="92">
+    <row r="32" ht="12" customHeight="1" s="92">
       <c r="A32" s="123" t="n"/>
       <c r="B32" s="127" t="n"/>
       <c r="C32" s="127" t="n"/>
@@ -9486,7 +9486,7 @@
       <c r="Y32" s="129" t="n"/>
       <c r="BY32" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="33" s="92">
+    <row r="33" ht="12" customHeight="1" s="92">
       <c r="A33" s="123" t="n"/>
       <c r="B33" s="127" t="n"/>
       <c r="C33" s="127" t="n"/>
@@ -9547,7 +9547,7 @@
       <c r="BS33" s="131" t="n"/>
       <c r="BY33" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="34" s="92">
+    <row r="34" ht="12" customHeight="1" s="92">
       <c r="A34" s="123" t="n"/>
       <c r="B34" s="127" t="n"/>
       <c r="C34" s="127" t="n"/>
@@ -9608,7 +9608,7 @@
       <c r="BS34" s="131" t="n"/>
       <c r="BY34" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="35" s="92">
+    <row r="35" ht="12" customHeight="1" s="92">
       <c r="A35" s="123" t="n"/>
       <c r="B35" s="127" t="n"/>
       <c r="C35" s="127" t="n"/>
@@ -9635,7 +9635,7 @@
       <c r="X35" s="127" t="n"/>
       <c r="BY35" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="36" s="92">
+    <row r="36" ht="12" customHeight="1" s="92">
       <c r="A36" s="123" t="n"/>
       <c r="B36" s="127" t="n"/>
       <c r="C36" s="127" t="n"/>
@@ -9662,7 +9662,7 @@
       <c r="X36" s="127" t="n"/>
       <c r="BY36" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
+    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A37" s="133" t="n"/>
       <c r="B37" s="134" t="n"/>
       <c r="C37" s="134" t="n"/>
@@ -9741,7 +9741,7 @@
       <c r="BX37" s="134" t="n"/>
       <c r="BY37" s="135" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
+    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A38" s="324" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -9828,7 +9828,7 @@
       <c r="BX38" s="136" t="n"/>
       <c r="BY38" s="139" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="39" s="92">
+    <row r="39" ht="12" customHeight="1" s="92">
       <c r="A39" s="326" t="inlineStr">
         <is>
           <t>Date</t>
@@ -9887,7 +9887,7 @@
       <c r="BX39" s="140" t="n"/>
       <c r="BY39" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="40" s="92">
+    <row r="40" ht="12" customHeight="1" s="92">
       <c r="A40" s="326" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -9948,7 +9948,7 @@
       <c r="BX40" s="140" t="n"/>
       <c r="BY40" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="41" s="92">
+    <row r="41" ht="12" customHeight="1" s="92">
       <c r="A41" s="326" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -10009,7 +10009,7 @@
       <c r="BX41" s="140" t="n"/>
       <c r="BY41" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="42" s="92">
+    <row r="42" ht="12" customHeight="1" s="92">
       <c r="A42" s="326" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -10068,7 +10068,7 @@
       <c r="BX42" s="144" t="n"/>
       <c r="BY42" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="43" s="92">
+    <row r="43" ht="12" customHeight="1" s="92">
       <c r="A43" s="326" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -10129,7 +10129,7 @@
       <c r="BX43" s="144" t="n"/>
       <c r="BY43" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="44" s="92">
+    <row r="44" ht="12" customHeight="1" s="92">
       <c r="A44" s="326" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -10190,7 +10190,7 @@
       <c r="BX44" s="140" t="n"/>
       <c r="BY44" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
+    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A45" s="329" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -10273,15 +10273,15 @@
       <c r="BX45" s="146" t="n"/>
       <c r="BY45" s="147" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
     <row r="47"/>
     <row r="48"/>
     <row r="49"/>
-    <row customHeight="1" ht="12" r="51" s="92">
+    <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="52" s="92">
+    <row r="52" ht="12" customHeight="1" s="92">
       <c r="A52" s="148" t="n"/>
       <c r="B52" s="127" t="n"/>
     </row>
@@ -10306,8 +10306,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
+  <pageSetup orientation="landscape" fitToHeight="0"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -10327,21 +10327,21 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K38" sqref="K38:Y45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="65" min="1" style="115" width="1.7109375"/>
-    <col customWidth="1" max="66" min="66" style="115" width="1.7109375"/>
-    <col customWidth="1" max="67" min="67" style="115" width="0.140625"/>
-    <col customWidth="1" hidden="1" max="75" min="68" style="115" width="1.7109375"/>
-    <col customWidth="1" max="76" min="76" style="115" width="0.140625"/>
-    <col customWidth="1" max="16384" min="77" style="115" width="1.7109375"/>
+    <col width="1.7109375" customWidth="1" style="115" min="1" max="65"/>
+    <col width="1.7109375" customWidth="1" style="115" min="66" max="66"/>
+    <col width="0.140625" customWidth="1" style="115" min="67" max="67"/>
+    <col hidden="1" width="1.7109375" customWidth="1" style="115" min="68" max="75"/>
+    <col width="0.140625" customWidth="1" style="115" min="76" max="76"/>
+    <col width="1.7109375" customWidth="1" style="115" min="77" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
+    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
       <c r="A1" s="255" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -10420,7 +10420,7 @@
       <c r="BX1" s="262" t="n"/>
       <c r="BY1" s="262" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
+    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A2" s="116" t="n"/>
       <c r="B2" s="117" t="n"/>
       <c r="C2" s="117" t="n"/>
@@ -10499,7 +10499,7 @@
       <c r="BX2" s="117" t="n"/>
       <c r="BY2" s="118" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="3" s="92">
+    <row r="3" ht="12" customHeight="1" s="92">
       <c r="A3" s="119" t="n"/>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="121" t="n"/>
@@ -10578,7 +10578,7 @@
       <c r="BX3" s="121" t="n"/>
       <c r="BY3" s="122" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="4" s="92">
+    <row r="4" ht="12" customHeight="1" s="92">
       <c r="A4" s="119" t="n"/>
       <c r="B4" s="121" t="n"/>
       <c r="C4" s="121" t="n"/>
@@ -10657,7 +10657,7 @@
       <c r="BX4" s="121" t="n"/>
       <c r="BY4" s="122" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="5" s="92">
+    <row r="5" ht="12" customHeight="1" s="92">
       <c r="A5" s="123" t="n"/>
       <c r="AW5" s="124" t="n"/>
       <c r="AX5" s="124" t="n"/>
@@ -10675,7 +10675,7 @@
       <c r="BJ5" s="124" t="n"/>
       <c r="BY5" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="6" s="92">
+    <row r="6" ht="12" customHeight="1" s="92">
       <c r="A6" s="123" t="n"/>
       <c r="AW6" s="124" t="n"/>
       <c r="AX6" s="124" t="n"/>
@@ -10693,7 +10693,7 @@
       <c r="BJ6" s="124" t="n"/>
       <c r="BY6" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="7" s="92">
+    <row r="7" ht="12" customHeight="1" s="92">
       <c r="A7" s="123" t="n"/>
       <c r="V7" s="124" t="n"/>
       <c r="W7" s="124" t="n"/>
@@ -10727,7 +10727,7 @@
       <c r="BJ7" s="126" t="n"/>
       <c r="BY7" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="8" s="92">
+    <row r="8" ht="12" customHeight="1" s="92">
       <c r="A8" s="123" t="n"/>
       <c r="V8" s="124" t="n"/>
       <c r="W8" s="124" t="n"/>
@@ -10761,7 +10761,7 @@
       <c r="BJ8" s="126" t="n"/>
       <c r="BY8" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="9" s="92">
+    <row r="9" ht="12" customHeight="1" s="92">
       <c r="A9" s="123" t="n"/>
       <c r="V9" s="126" t="n"/>
       <c r="W9" s="126" t="n"/>
@@ -10781,7 +10781,7 @@
       <c r="AK9" s="126" t="n"/>
       <c r="BY9" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="10" s="92">
+    <row r="10" ht="12" customHeight="1" s="92">
       <c r="A10" s="123" t="n"/>
       <c r="V10" s="126" t="n"/>
       <c r="W10" s="126" t="n"/>
@@ -10801,7 +10801,7 @@
       <c r="AK10" s="126" t="n"/>
       <c r="BY10" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="11" s="92">
+    <row r="11" ht="12" customHeight="1" s="92">
       <c r="A11" s="123" t="n"/>
       <c r="V11" s="126" t="n"/>
       <c r="W11" s="126" t="n"/>
@@ -10821,19 +10821,19 @@
       <c r="AK11" s="126" t="n"/>
       <c r="BY11" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="12" s="92">
+    <row r="12" ht="12" customHeight="1" s="92">
       <c r="A12" s="123" t="n"/>
       <c r="BY12" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="13" s="92">
+    <row r="13" ht="12" customHeight="1" s="92">
       <c r="A13" s="123" t="n"/>
       <c r="BY13" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="14" s="92">
+    <row r="14" ht="12" customHeight="1" s="92">
       <c r="A14" s="123" t="n"/>
       <c r="BY14" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="15" s="92">
+    <row r="15" ht="12" customHeight="1" s="92">
       <c r="A15" s="123" t="n"/>
       <c r="BY15" s="125" t="n"/>
       <c r="CP15" s="127" t="n"/>
@@ -10856,7 +10856,7 @@
       <c r="DG15" s="127" t="n"/>
       <c r="DH15" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="16" s="92">
+    <row r="16" ht="12" customHeight="1" s="92">
       <c r="A16" s="123" t="n"/>
       <c r="BY16" s="125" t="n"/>
       <c r="CP16" s="127" t="n"/>
@@ -10879,7 +10879,7 @@
       <c r="DG16" s="127" t="n"/>
       <c r="DH16" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="17" s="92">
+    <row r="17" ht="12" customHeight="1" s="92">
       <c r="A17" s="123" t="n"/>
       <c r="BY17" s="125" t="n"/>
       <c r="CP17" s="127" t="n"/>
@@ -10902,7 +10902,7 @@
       <c r="DG17" s="127" t="n"/>
       <c r="DH17" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="18" s="92">
+    <row r="18" ht="12" customHeight="1" s="92">
       <c r="A18" s="123" t="n"/>
       <c r="BY18" s="125" t="n"/>
       <c r="CP18" s="127" t="n"/>
@@ -10925,7 +10925,7 @@
       <c r="DG18" s="127" t="n"/>
       <c r="DH18" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="19" s="92">
+    <row r="19" ht="12" customHeight="1" s="92">
       <c r="A19" s="123" t="n"/>
       <c r="BY19" s="125" t="n"/>
       <c r="CP19" s="127" t="n"/>
@@ -10948,7 +10948,7 @@
       <c r="DG19" s="127" t="n"/>
       <c r="DH19" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="20" s="92">
+    <row r="20" ht="12" customHeight="1" s="92">
       <c r="A20" s="123" t="n"/>
       <c r="BY20" s="125" t="n"/>
       <c r="CP20" s="127" t="n"/>
@@ -10971,7 +10971,7 @@
       <c r="DG20" s="127" t="n"/>
       <c r="DH20" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="21" s="92">
+    <row r="21" ht="12" customHeight="1" s="92">
       <c r="A21" s="123" t="n"/>
       <c r="BY21" s="125" t="n"/>
       <c r="CP21" s="127" t="n"/>
@@ -10994,7 +10994,7 @@
       <c r="DG21" s="127" t="n"/>
       <c r="DH21" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="22" s="92">
+    <row r="22" ht="12" customHeight="1" s="92">
       <c r="A22" s="123" t="n"/>
       <c r="BY22" s="125" t="n"/>
       <c r="CP22" s="127" t="n"/>
@@ -11017,7 +11017,7 @@
       <c r="DG22" s="127" t="n"/>
       <c r="DH22" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="23" s="92">
+    <row r="23" ht="12" customHeight="1" s="92">
       <c r="A23" s="123" t="n"/>
       <c r="AL23" s="124" t="n"/>
       <c r="AM23" s="124" t="n"/>
@@ -11050,7 +11050,7 @@
       <c r="DG23" s="127" t="n"/>
       <c r="DH23" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="24" s="92">
+    <row r="24" ht="12" customHeight="1" s="92">
       <c r="A24" s="123" t="n"/>
       <c r="J24" s="124" t="n"/>
       <c r="K24" s="124" t="n"/>
@@ -11078,7 +11078,7 @@
       <c r="AU24" s="124" t="n"/>
       <c r="BY24" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="25" s="92">
+    <row r="25" ht="12" customHeight="1" s="92">
       <c r="A25" s="123" t="n"/>
       <c r="J25" s="124" t="n"/>
       <c r="K25" s="124" t="n"/>
@@ -11106,7 +11106,7 @@
       <c r="AU25" s="126" t="n"/>
       <c r="BY25" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="26" s="92">
+    <row r="26" ht="12" customHeight="1" s="92">
       <c r="A26" s="123" t="n"/>
       <c r="BC26" s="124" t="n"/>
       <c r="BD26" s="124" t="n"/>
@@ -11124,7 +11124,7 @@
       <c r="BP26" s="124" t="n"/>
       <c r="BY26" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="27" s="92">
+    <row r="27" ht="12" customHeight="1" s="92">
       <c r="A27" s="123" t="n"/>
       <c r="B27" s="127" t="n"/>
       <c r="C27" s="127" t="n"/>
@@ -11166,7 +11166,7 @@
       <c r="BP27" s="124" t="n"/>
       <c r="BY27" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="28" s="92">
+    <row r="28" ht="12" customHeight="1" s="92">
       <c r="A28" s="123" t="n"/>
       <c r="B28" s="127" t="n"/>
       <c r="C28" s="127" t="n"/>
@@ -11208,7 +11208,7 @@
       <c r="BP28" s="124" t="n"/>
       <c r="BY28" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="29" s="92">
+    <row r="29" ht="12" customHeight="1" s="92">
       <c r="A29" s="123" t="n"/>
       <c r="B29" s="127" t="n"/>
       <c r="C29" s="127" t="n"/>
@@ -11250,7 +11250,7 @@
       <c r="BP29" s="124" t="n"/>
       <c r="BY29" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="30" s="92">
+    <row r="30" ht="12" customHeight="1" s="92">
       <c r="A30" s="123" t="n"/>
       <c r="B30" s="127" t="n"/>
       <c r="C30" s="127" t="n"/>
@@ -11292,7 +11292,7 @@
       <c r="BP30" s="126" t="n"/>
       <c r="BY30" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="31" s="92">
+    <row r="31" ht="12" customHeight="1" s="92">
       <c r="A31" s="123" t="n"/>
       <c r="B31" s="127" t="n"/>
       <c r="C31" s="127" t="n"/>
@@ -11334,7 +11334,7 @@
       <c r="BP31" s="126" t="n"/>
       <c r="BY31" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="32" s="92">
+    <row r="32" ht="12" customHeight="1" s="92">
       <c r="A32" s="123" t="n"/>
       <c r="B32" s="127" t="n"/>
       <c r="C32" s="127" t="n"/>
@@ -11362,7 +11362,7 @@
       <c r="Y32" s="129" t="n"/>
       <c r="BY32" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="33" s="92">
+    <row r="33" ht="12" customHeight="1" s="92">
       <c r="A33" s="123" t="n"/>
       <c r="B33" s="127" t="n"/>
       <c r="C33" s="127" t="n"/>
@@ -11423,7 +11423,7 @@
       <c r="BS33" s="131" t="n"/>
       <c r="BY33" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="34" s="92">
+    <row r="34" ht="12" customHeight="1" s="92">
       <c r="A34" s="123" t="n"/>
       <c r="B34" s="127" t="n"/>
       <c r="C34" s="127" t="n"/>
@@ -11484,7 +11484,7 @@
       <c r="BS34" s="131" t="n"/>
       <c r="BY34" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="35" s="92">
+    <row r="35" ht="12" customHeight="1" s="92">
       <c r="A35" s="123" t="n"/>
       <c r="B35" s="127" t="n"/>
       <c r="C35" s="127" t="n"/>
@@ -11511,7 +11511,7 @@
       <c r="X35" s="127" t="n"/>
       <c r="BY35" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="36" s="92">
+    <row r="36" ht="12" customHeight="1" s="92">
       <c r="A36" s="123" t="n"/>
       <c r="B36" s="127" t="n"/>
       <c r="C36" s="127" t="n"/>
@@ -11538,7 +11538,7 @@
       <c r="X36" s="127" t="n"/>
       <c r="BY36" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
+    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A37" s="133" t="n"/>
       <c r="B37" s="134" t="n"/>
       <c r="C37" s="134" t="n"/>
@@ -11617,7 +11617,7 @@
       <c r="BX37" s="134" t="n"/>
       <c r="BY37" s="135" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
+    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A38" s="324" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -11704,7 +11704,7 @@
       <c r="BX38" s="136" t="n"/>
       <c r="BY38" s="139" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="39" s="92">
+    <row r="39" ht="12" customHeight="1" s="92">
       <c r="A39" s="326" t="inlineStr">
         <is>
           <t>Date</t>
@@ -11763,7 +11763,7 @@
       <c r="BX39" s="140" t="n"/>
       <c r="BY39" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="40" s="92">
+    <row r="40" ht="12" customHeight="1" s="92">
       <c r="A40" s="326" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -11824,7 +11824,7 @@
       <c r="BX40" s="140" t="n"/>
       <c r="BY40" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="41" s="92">
+    <row r="41" ht="12" customHeight="1" s="92">
       <c r="A41" s="326" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -11885,7 +11885,7 @@
       <c r="BX41" s="140" t="n"/>
       <c r="BY41" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="42" s="92">
+    <row r="42" ht="12" customHeight="1" s="92">
       <c r="A42" s="326" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -11944,7 +11944,7 @@
       <c r="BX42" s="144" t="n"/>
       <c r="BY42" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="43" s="92">
+    <row r="43" ht="12" customHeight="1" s="92">
       <c r="A43" s="326" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -12005,7 +12005,7 @@
       <c r="BX43" s="144" t="n"/>
       <c r="BY43" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="44" s="92">
+    <row r="44" ht="12" customHeight="1" s="92">
       <c r="A44" s="326" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -12066,7 +12066,7 @@
       <c r="BX44" s="140" t="n"/>
       <c r="BY44" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
+    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A45" s="329" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -12149,15 +12149,15 @@
       <c r="BX45" s="146" t="n"/>
       <c r="BY45" s="147" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
     <row r="47"/>
     <row r="48"/>
     <row r="49"/>
-    <row customHeight="1" ht="12" r="51" s="92">
+    <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="52" s="92">
+    <row r="52" ht="12" customHeight="1" s="92">
       <c r="A52" s="148" t="n"/>
       <c r="B52" s="127" t="n"/>
     </row>
@@ -12182,8 +12182,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
+  <pageSetup orientation="landscape" fitToHeight="0"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -12203,21 +12203,21 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="CG23" sqref="CG23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="65" min="1" style="115" width="1.7109375"/>
-    <col customWidth="1" max="66" min="66" style="115" width="1.7109375"/>
-    <col customWidth="1" max="67" min="67" style="115" width="0.140625"/>
-    <col customWidth="1" hidden="1" max="75" min="68" style="115" width="1.7109375"/>
-    <col customWidth="1" max="76" min="76" style="115" width="0.140625"/>
-    <col customWidth="1" max="16384" min="77" style="115" width="1.7109375"/>
+    <col width="1.7109375" customWidth="1" style="115" min="1" max="65"/>
+    <col width="1.7109375" customWidth="1" style="115" min="66" max="66"/>
+    <col width="0.140625" customWidth="1" style="115" min="67" max="67"/>
+    <col hidden="1" width="1.7109375" customWidth="1" style="115" min="68" max="75"/>
+    <col width="0.140625" customWidth="1" style="115" min="76" max="76"/>
+    <col width="1.7109375" customWidth="1" style="115" min="77" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
+    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
       <c r="A1" s="255" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -12296,7 +12296,7 @@
       <c r="BX1" s="262" t="n"/>
       <c r="BY1" s="262" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
+    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A2" s="116" t="n"/>
       <c r="B2" s="117" t="n"/>
       <c r="C2" s="117" t="n"/>
@@ -12375,7 +12375,7 @@
       <c r="BX2" s="117" t="n"/>
       <c r="BY2" s="118" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="3" s="92">
+    <row r="3" ht="12" customHeight="1" s="92">
       <c r="A3" s="119" t="n"/>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="121" t="n"/>
@@ -12454,7 +12454,7 @@
       <c r="BX3" s="121" t="n"/>
       <c r="BY3" s="122" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="4" s="92">
+    <row r="4" ht="12" customHeight="1" s="92">
       <c r="A4" s="119" t="n"/>
       <c r="B4" s="121" t="n"/>
       <c r="C4" s="121" t="n"/>
@@ -12533,7 +12533,7 @@
       <c r="BX4" s="121" t="n"/>
       <c r="BY4" s="122" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="5" s="92">
+    <row r="5" ht="12" customHeight="1" s="92">
       <c r="A5" s="123" t="n"/>
       <c r="AW5" s="124" t="n"/>
       <c r="AX5" s="124" t="n"/>
@@ -12551,7 +12551,7 @@
       <c r="BJ5" s="124" t="n"/>
       <c r="BY5" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="6" s="92">
+    <row r="6" ht="12" customHeight="1" s="92">
       <c r="A6" s="123" t="n"/>
       <c r="AW6" s="124" t="n"/>
       <c r="AX6" s="124" t="n"/>
@@ -12569,7 +12569,7 @@
       <c r="BJ6" s="124" t="n"/>
       <c r="BY6" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="7" s="92">
+    <row r="7" ht="12" customHeight="1" s="92">
       <c r="A7" s="123" t="n"/>
       <c r="V7" s="124" t="n"/>
       <c r="W7" s="124" t="n"/>
@@ -12603,7 +12603,7 @@
       <c r="BJ7" s="126" t="n"/>
       <c r="BY7" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="8" s="92">
+    <row r="8" ht="12" customHeight="1" s="92">
       <c r="A8" s="123" t="n"/>
       <c r="V8" s="124" t="n"/>
       <c r="W8" s="124" t="n"/>
@@ -12637,7 +12637,7 @@
       <c r="BJ8" s="126" t="n"/>
       <c r="BY8" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="9" s="92">
+    <row r="9" ht="12" customHeight="1" s="92">
       <c r="A9" s="123" t="n"/>
       <c r="V9" s="126" t="n"/>
       <c r="W9" s="126" t="n"/>
@@ -12657,7 +12657,7 @@
       <c r="AK9" s="126" t="n"/>
       <c r="BY9" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="10" s="92">
+    <row r="10" ht="12" customHeight="1" s="92">
       <c r="A10" s="123" t="n"/>
       <c r="V10" s="126" t="n"/>
       <c r="W10" s="126" t="n"/>
@@ -12677,7 +12677,7 @@
       <c r="AK10" s="126" t="n"/>
       <c r="BY10" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="11" s="92">
+    <row r="11" ht="12" customHeight="1" s="92">
       <c r="A11" s="123" t="n"/>
       <c r="V11" s="126" t="n"/>
       <c r="W11" s="126" t="n"/>
@@ -12697,19 +12697,19 @@
       <c r="AK11" s="126" t="n"/>
       <c r="BY11" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="12" s="92">
+    <row r="12" ht="12" customHeight="1" s="92">
       <c r="A12" s="123" t="n"/>
       <c r="BY12" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="13" s="92">
+    <row r="13" ht="12" customHeight="1" s="92">
       <c r="A13" s="123" t="n"/>
       <c r="BY13" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="14" s="92">
+    <row r="14" ht="12" customHeight="1" s="92">
       <c r="A14" s="123" t="n"/>
       <c r="BY14" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="15" s="92">
+    <row r="15" ht="12" customHeight="1" s="92">
       <c r="A15" s="123" t="n"/>
       <c r="BY15" s="125" t="n"/>
       <c r="CP15" s="127" t="n"/>
@@ -12732,7 +12732,7 @@
       <c r="DG15" s="127" t="n"/>
       <c r="DH15" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="16" s="92">
+    <row r="16" ht="12" customHeight="1" s="92">
       <c r="A16" s="123" t="n"/>
       <c r="BY16" s="125" t="n"/>
       <c r="CP16" s="127" t="n"/>
@@ -12755,7 +12755,7 @@
       <c r="DG16" s="127" t="n"/>
       <c r="DH16" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="17" s="92">
+    <row r="17" ht="12" customHeight="1" s="92">
       <c r="A17" s="123" t="n"/>
       <c r="BY17" s="125" t="n"/>
       <c r="CP17" s="127" t="n"/>
@@ -12778,7 +12778,7 @@
       <c r="DG17" s="127" t="n"/>
       <c r="DH17" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="18" s="92">
+    <row r="18" ht="12" customHeight="1" s="92">
       <c r="A18" s="123" t="n"/>
       <c r="BY18" s="125" t="n"/>
       <c r="CP18" s="127" t="n"/>
@@ -12801,7 +12801,7 @@
       <c r="DG18" s="127" t="n"/>
       <c r="DH18" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="19" s="92">
+    <row r="19" ht="12" customHeight="1" s="92">
       <c r="A19" s="123" t="n"/>
       <c r="BY19" s="125" t="n"/>
       <c r="CP19" s="127" t="n"/>
@@ -12824,7 +12824,7 @@
       <c r="DG19" s="127" t="n"/>
       <c r="DH19" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="20" s="92">
+    <row r="20" ht="12" customHeight="1" s="92">
       <c r="A20" s="123" t="n"/>
       <c r="BY20" s="125" t="n"/>
       <c r="CP20" s="127" t="n"/>
@@ -12847,7 +12847,7 @@
       <c r="DG20" s="127" t="n"/>
       <c r="DH20" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="21" s="92">
+    <row r="21" ht="12" customHeight="1" s="92">
       <c r="A21" s="123" t="n"/>
       <c r="BY21" s="125" t="n"/>
       <c r="CP21" s="127" t="n"/>
@@ -12870,7 +12870,7 @@
       <c r="DG21" s="127" t="n"/>
       <c r="DH21" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="22" s="92">
+    <row r="22" ht="12" customHeight="1" s="92">
       <c r="A22" s="123" t="n"/>
       <c r="BY22" s="125" t="n"/>
       <c r="CP22" s="127" t="n"/>
@@ -12893,7 +12893,7 @@
       <c r="DG22" s="127" t="n"/>
       <c r="DH22" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="23" s="92">
+    <row r="23" ht="12" customHeight="1" s="92">
       <c r="A23" s="123" t="n"/>
       <c r="AL23" s="124" t="n"/>
       <c r="AM23" s="124" t="n"/>
@@ -12926,7 +12926,7 @@
       <c r="DG23" s="127" t="n"/>
       <c r="DH23" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="24" s="92">
+    <row r="24" ht="12" customHeight="1" s="92">
       <c r="A24" s="123" t="n"/>
       <c r="J24" s="124" t="n"/>
       <c r="K24" s="124" t="n"/>
@@ -12954,7 +12954,7 @@
       <c r="AU24" s="124" t="n"/>
       <c r="BY24" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="25" s="92">
+    <row r="25" ht="12" customHeight="1" s="92">
       <c r="A25" s="123" t="n"/>
       <c r="J25" s="124" t="n"/>
       <c r="K25" s="124" t="n"/>
@@ -12982,7 +12982,7 @@
       <c r="AU25" s="126" t="n"/>
       <c r="BY25" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="26" s="92">
+    <row r="26" ht="12" customHeight="1" s="92">
       <c r="A26" s="123" t="n"/>
       <c r="BC26" s="124" t="n"/>
       <c r="BD26" s="124" t="n"/>
@@ -13000,7 +13000,7 @@
       <c r="BP26" s="124" t="n"/>
       <c r="BY26" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="27" s="92">
+    <row r="27" ht="12" customHeight="1" s="92">
       <c r="A27" s="123" t="n"/>
       <c r="B27" s="127" t="n"/>
       <c r="C27" s="127" t="n"/>
@@ -13042,7 +13042,7 @@
       <c r="BP27" s="124" t="n"/>
       <c r="BY27" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="28" s="92">
+    <row r="28" ht="12" customHeight="1" s="92">
       <c r="A28" s="123" t="n"/>
       <c r="B28" s="127" t="n"/>
       <c r="C28" s="127" t="n"/>
@@ -13084,7 +13084,7 @@
       <c r="BP28" s="124" t="n"/>
       <c r="BY28" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="29" s="92">
+    <row r="29" ht="12" customHeight="1" s="92">
       <c r="A29" s="123" t="n"/>
       <c r="B29" s="127" t="n"/>
       <c r="C29" s="127" t="n"/>
@@ -13126,7 +13126,7 @@
       <c r="BP29" s="124" t="n"/>
       <c r="BY29" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="30" s="92">
+    <row r="30" ht="12" customHeight="1" s="92">
       <c r="A30" s="123" t="n"/>
       <c r="B30" s="127" t="n"/>
       <c r="C30" s="127" t="n"/>
@@ -13168,7 +13168,7 @@
       <c r="BP30" s="126" t="n"/>
       <c r="BY30" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="31" s="92">
+    <row r="31" ht="12" customHeight="1" s="92">
       <c r="A31" s="123" t="n"/>
       <c r="B31" s="127" t="n"/>
       <c r="C31" s="127" t="n"/>
@@ -13210,7 +13210,7 @@
       <c r="BP31" s="126" t="n"/>
       <c r="BY31" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="32" s="92">
+    <row r="32" ht="12" customHeight="1" s="92">
       <c r="A32" s="123" t="n"/>
       <c r="B32" s="127" t="n"/>
       <c r="C32" s="127" t="n"/>
@@ -13238,7 +13238,7 @@
       <c r="Y32" s="129" t="n"/>
       <c r="BY32" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="33" s="92">
+    <row r="33" ht="12" customHeight="1" s="92">
       <c r="A33" s="123" t="n"/>
       <c r="B33" s="127" t="n"/>
       <c r="C33" s="127" t="n"/>
@@ -13299,7 +13299,7 @@
       <c r="BS33" s="131" t="n"/>
       <c r="BY33" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="34" s="92">
+    <row r="34" ht="12" customHeight="1" s="92">
       <c r="A34" s="123" t="n"/>
       <c r="B34" s="127" t="n"/>
       <c r="C34" s="127" t="n"/>
@@ -13360,7 +13360,7 @@
       <c r="BS34" s="131" t="n"/>
       <c r="BY34" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="35" s="92">
+    <row r="35" ht="12" customHeight="1" s="92">
       <c r="A35" s="123" t="n"/>
       <c r="B35" s="127" t="n"/>
       <c r="C35" s="127" t="n"/>
@@ -13387,7 +13387,7 @@
       <c r="X35" s="127" t="n"/>
       <c r="BY35" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="36" s="92">
+    <row r="36" ht="12" customHeight="1" s="92">
       <c r="A36" s="123" t="n"/>
       <c r="B36" s="127" t="n"/>
       <c r="C36" s="127" t="n"/>
@@ -13414,7 +13414,7 @@
       <c r="X36" s="127" t="n"/>
       <c r="BY36" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
+    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A37" s="133" t="n"/>
       <c r="B37" s="134" t="n"/>
       <c r="C37" s="134" t="n"/>
@@ -13493,7 +13493,7 @@
       <c r="BX37" s="134" t="n"/>
       <c r="BY37" s="135" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
+    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A38" s="324" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -13580,7 +13580,7 @@
       <c r="BX38" s="136" t="n"/>
       <c r="BY38" s="139" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="39" s="92">
+    <row r="39" ht="12" customHeight="1" s="92">
       <c r="A39" s="326" t="inlineStr">
         <is>
           <t>Date</t>
@@ -13639,7 +13639,7 @@
       <c r="BX39" s="140" t="n"/>
       <c r="BY39" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="40" s="92">
+    <row r="40" ht="12" customHeight="1" s="92">
       <c r="A40" s="326" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -13700,7 +13700,7 @@
       <c r="BX40" s="140" t="n"/>
       <c r="BY40" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="41" s="92">
+    <row r="41" ht="12" customHeight="1" s="92">
       <c r="A41" s="326" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -13761,7 +13761,7 @@
       <c r="BX41" s="140" t="n"/>
       <c r="BY41" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="42" s="92">
+    <row r="42" ht="12" customHeight="1" s="92">
       <c r="A42" s="326" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -13820,7 +13820,7 @@
       <c r="BX42" s="144" t="n"/>
       <c r="BY42" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="43" s="92">
+    <row r="43" ht="12" customHeight="1" s="92">
       <c r="A43" s="326" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -13881,7 +13881,7 @@
       <c r="BX43" s="144" t="n"/>
       <c r="BY43" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="44" s="92">
+    <row r="44" ht="12" customHeight="1" s="92">
       <c r="A44" s="326" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -13942,7 +13942,7 @@
       <c r="BX44" s="140" t="n"/>
       <c r="BY44" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
+    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A45" s="329" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -14025,15 +14025,15 @@
       <c r="BX45" s="146" t="n"/>
       <c r="BY45" s="147" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
     <row r="47"/>
     <row r="48"/>
     <row r="49"/>
-    <row customHeight="1" ht="12" r="51" s="92">
+    <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="52" s="92">
+    <row r="52" ht="12" customHeight="1" s="92">
       <c r="A52" s="148" t="n"/>
       <c r="B52" s="127" t="n"/>
     </row>
@@ -14058,8 +14058,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
+  <pageSetup orientation="landscape" fitToHeight="0"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>
@@ -14079,19 +14079,19 @@
   </sheetPr>
   <dimension ref="A1:DH52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="CQ33" sqref="CQ33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="1.7109375" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="1.7109375" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="66" min="1" style="115" width="1.7109375"/>
-    <col customWidth="1" max="67" min="67" style="115" width="0.140625"/>
-    <col customWidth="1" hidden="1" max="76" min="68" style="115" width="1.7109375"/>
-    <col customWidth="1" max="16384" min="77" style="115" width="1.7109375"/>
+    <col width="1.7109375" customWidth="1" style="115" min="1" max="66"/>
+    <col width="0.140625" customWidth="1" style="115" min="67" max="67"/>
+    <col hidden="1" width="1.7109375" customWidth="1" style="115" min="68" max="76"/>
+    <col width="1.7109375" customWidth="1" style="115" min="77" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="38.25" r="1" s="92" thickBot="1">
+    <row r="1" ht="38.25" customHeight="1" s="92" thickBot="1">
       <c r="A1" s="255" t="n"/>
       <c r="B1" s="262" t="n"/>
       <c r="C1" s="262" t="n"/>
@@ -14170,7 +14170,7 @@
       <c r="BX1" s="262" t="n"/>
       <c r="BY1" s="262" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="2" s="92" thickTop="1">
+    <row r="2" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A2" s="116" t="n"/>
       <c r="B2" s="117" t="n"/>
       <c r="C2" s="117" t="n"/>
@@ -14249,7 +14249,7 @@
       <c r="BX2" s="117" t="n"/>
       <c r="BY2" s="118" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="3" s="92">
+    <row r="3" ht="12" customHeight="1" s="92">
       <c r="A3" s="119" t="n"/>
       <c r="B3" s="120" t="n"/>
       <c r="C3" s="121" t="n"/>
@@ -14328,7 +14328,7 @@
       <c r="BX3" s="121" t="n"/>
       <c r="BY3" s="122" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="4" s="92">
+    <row r="4" ht="12" customHeight="1" s="92">
       <c r="A4" s="119" t="n"/>
       <c r="B4" s="121" t="n"/>
       <c r="C4" s="121" t="n"/>
@@ -14407,7 +14407,7 @@
       <c r="BX4" s="121" t="n"/>
       <c r="BY4" s="122" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="5" s="92">
+    <row r="5" ht="12" customHeight="1" s="92">
       <c r="A5" s="123" t="n"/>
       <c r="AW5" s="124" t="n"/>
       <c r="AX5" s="124" t="n"/>
@@ -14425,7 +14425,7 @@
       <c r="BJ5" s="124" t="n"/>
       <c r="BY5" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="6" s="92">
+    <row r="6" ht="12" customHeight="1" s="92">
       <c r="A6" s="123" t="n"/>
       <c r="AW6" s="124" t="n"/>
       <c r="AX6" s="124" t="n"/>
@@ -14443,7 +14443,7 @@
       <c r="BJ6" s="124" t="n"/>
       <c r="BY6" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="7" s="92">
+    <row r="7" ht="12" customHeight="1" s="92">
       <c r="A7" s="123" t="n"/>
       <c r="V7" s="124" t="n"/>
       <c r="W7" s="124" t="n"/>
@@ -14477,7 +14477,7 @@
       <c r="BJ7" s="126" t="n"/>
       <c r="BY7" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="8" s="92">
+    <row r="8" ht="12" customHeight="1" s="92">
       <c r="A8" s="123" t="n"/>
       <c r="V8" s="124" t="n"/>
       <c r="W8" s="124" t="n"/>
@@ -14511,7 +14511,7 @@
       <c r="BJ8" s="126" t="n"/>
       <c r="BY8" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="9" s="92">
+    <row r="9" ht="12" customHeight="1" s="92">
       <c r="A9" s="123" t="n"/>
       <c r="V9" s="126" t="n"/>
       <c r="W9" s="126" t="n"/>
@@ -14531,7 +14531,7 @@
       <c r="AK9" s="126" t="n"/>
       <c r="BY9" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="10" s="92">
+    <row r="10" ht="12" customHeight="1" s="92">
       <c r="A10" s="123" t="n"/>
       <c r="V10" s="126" t="n"/>
       <c r="W10" s="126" t="n"/>
@@ -14551,7 +14551,7 @@
       <c r="AK10" s="126" t="n"/>
       <c r="BY10" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="11" s="92">
+    <row r="11" ht="12" customHeight="1" s="92">
       <c r="A11" s="123" t="n"/>
       <c r="V11" s="126" t="n"/>
       <c r="W11" s="126" t="n"/>
@@ -14571,19 +14571,19 @@
       <c r="AK11" s="126" t="n"/>
       <c r="BY11" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="12" s="92">
+    <row r="12" ht="12" customHeight="1" s="92">
       <c r="A12" s="123" t="n"/>
       <c r="BY12" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="13" s="92">
+    <row r="13" ht="12" customHeight="1" s="92">
       <c r="A13" s="123" t="n"/>
       <c r="BY13" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="14" s="92">
+    <row r="14" ht="12" customHeight="1" s="92">
       <c r="A14" s="123" t="n"/>
       <c r="BY14" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="15" s="92">
+    <row r="15" ht="12" customHeight="1" s="92">
       <c r="A15" s="123" t="n"/>
       <c r="BY15" s="125" t="n"/>
       <c r="CP15" s="127" t="n"/>
@@ -14606,7 +14606,7 @@
       <c r="DG15" s="127" t="n"/>
       <c r="DH15" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="16" s="92">
+    <row r="16" ht="12" customHeight="1" s="92">
       <c r="A16" s="123" t="n"/>
       <c r="BY16" s="125" t="n"/>
       <c r="CP16" s="127" t="n"/>
@@ -14629,7 +14629,7 @@
       <c r="DG16" s="127" t="n"/>
       <c r="DH16" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="17" s="92">
+    <row r="17" ht="12" customHeight="1" s="92">
       <c r="A17" s="123" t="n"/>
       <c r="BY17" s="125" t="n"/>
       <c r="CP17" s="127" t="n"/>
@@ -14652,7 +14652,7 @@
       <c r="DG17" s="127" t="n"/>
       <c r="DH17" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="18" s="92">
+    <row r="18" ht="12" customHeight="1" s="92">
       <c r="A18" s="123" t="n"/>
       <c r="BY18" s="125" t="n"/>
       <c r="CP18" s="127" t="n"/>
@@ -14675,7 +14675,7 @@
       <c r="DG18" s="127" t="n"/>
       <c r="DH18" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="19" s="92">
+    <row r="19" ht="12" customHeight="1" s="92">
       <c r="A19" s="123" t="n"/>
       <c r="BY19" s="125" t="n"/>
       <c r="CP19" s="127" t="n"/>
@@ -14698,7 +14698,7 @@
       <c r="DG19" s="127" t="n"/>
       <c r="DH19" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="20" s="92">
+    <row r="20" ht="12" customHeight="1" s="92">
       <c r="A20" s="123" t="n"/>
       <c r="BY20" s="125" t="n"/>
       <c r="CP20" s="127" t="n"/>
@@ -14721,7 +14721,7 @@
       <c r="DG20" s="127" t="n"/>
       <c r="DH20" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="21" s="92">
+    <row r="21" ht="12" customHeight="1" s="92">
       <c r="A21" s="123" t="n"/>
       <c r="BY21" s="125" t="n"/>
       <c r="CP21" s="127" t="n"/>
@@ -14744,7 +14744,7 @@
       <c r="DG21" s="127" t="n"/>
       <c r="DH21" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="22" s="92">
+    <row r="22" ht="12" customHeight="1" s="92">
       <c r="A22" s="123" t="n"/>
       <c r="BY22" s="125" t="n"/>
       <c r="CP22" s="127" t="n"/>
@@ -14767,7 +14767,7 @@
       <c r="DG22" s="127" t="n"/>
       <c r="DH22" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="23" s="92">
+    <row r="23" ht="12" customHeight="1" s="92">
       <c r="A23" s="123" t="n"/>
       <c r="AL23" s="124" t="n"/>
       <c r="AM23" s="124" t="n"/>
@@ -14800,7 +14800,7 @@
       <c r="DG23" s="127" t="n"/>
       <c r="DH23" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="24" s="92">
+    <row r="24" ht="12" customHeight="1" s="92">
       <c r="A24" s="123" t="n"/>
       <c r="J24" s="124" t="n"/>
       <c r="K24" s="124" t="n"/>
@@ -14828,7 +14828,7 @@
       <c r="AU24" s="124" t="n"/>
       <c r="BY24" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="25" s="92">
+    <row r="25" ht="12" customHeight="1" s="92">
       <c r="A25" s="123" t="n"/>
       <c r="J25" s="124" t="n"/>
       <c r="K25" s="124" t="n"/>
@@ -14856,7 +14856,7 @@
       <c r="AU25" s="126" t="n"/>
       <c r="BY25" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="26" s="92">
+    <row r="26" ht="12" customHeight="1" s="92">
       <c r="A26" s="123" t="n"/>
       <c r="BC26" s="124" t="n"/>
       <c r="BD26" s="124" t="n"/>
@@ -14874,7 +14874,7 @@
       <c r="BP26" s="124" t="n"/>
       <c r="BY26" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="27" s="92">
+    <row r="27" ht="12" customHeight="1" s="92">
       <c r="A27" s="123" t="n"/>
       <c r="B27" s="127" t="n"/>
       <c r="C27" s="127" t="n"/>
@@ -14916,7 +14916,7 @@
       <c r="BP27" s="124" t="n"/>
       <c r="BY27" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="28" s="92">
+    <row r="28" ht="12" customHeight="1" s="92">
       <c r="A28" s="123" t="n"/>
       <c r="B28" s="127" t="n"/>
       <c r="C28" s="127" t="n"/>
@@ -14958,7 +14958,7 @@
       <c r="BP28" s="124" t="n"/>
       <c r="BY28" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="29" s="92">
+    <row r="29" ht="12" customHeight="1" s="92">
       <c r="A29" s="123" t="n"/>
       <c r="B29" s="127" t="n"/>
       <c r="C29" s="127" t="n"/>
@@ -15000,7 +15000,7 @@
       <c r="BP29" s="124" t="n"/>
       <c r="BY29" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="30" s="92">
+    <row r="30" ht="12" customHeight="1" s="92">
       <c r="A30" s="123" t="n"/>
       <c r="B30" s="127" t="n"/>
       <c r="C30" s="127" t="n"/>
@@ -15042,7 +15042,7 @@
       <c r="BP30" s="126" t="n"/>
       <c r="BY30" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="31" s="92">
+    <row r="31" ht="12" customHeight="1" s="92">
       <c r="A31" s="123" t="n"/>
       <c r="B31" s="127" t="n"/>
       <c r="C31" s="127" t="n"/>
@@ -15084,7 +15084,7 @@
       <c r="BP31" s="126" t="n"/>
       <c r="BY31" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="32" s="92">
+    <row r="32" ht="12" customHeight="1" s="92">
       <c r="A32" s="123" t="n"/>
       <c r="B32" s="127" t="n"/>
       <c r="C32" s="127" t="n"/>
@@ -15112,7 +15112,7 @@
       <c r="Y32" s="129" t="n"/>
       <c r="BY32" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="33" s="92">
+    <row r="33" ht="12" customHeight="1" s="92">
       <c r="A33" s="123" t="n"/>
       <c r="B33" s="127" t="n"/>
       <c r="C33" s="127" t="n"/>
@@ -15173,7 +15173,7 @@
       <c r="BS33" s="131" t="n"/>
       <c r="BY33" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="34" s="92">
+    <row r="34" ht="12" customHeight="1" s="92">
       <c r="A34" s="123" t="n"/>
       <c r="B34" s="127" t="n"/>
       <c r="C34" s="127" t="n"/>
@@ -15234,7 +15234,7 @@
       <c r="BS34" s="131" t="n"/>
       <c r="BY34" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="35" s="92">
+    <row r="35" ht="12" customHeight="1" s="92">
       <c r="A35" s="123" t="n"/>
       <c r="B35" s="127" t="n"/>
       <c r="C35" s="127" t="n"/>
@@ -15261,7 +15261,7 @@
       <c r="X35" s="127" t="n"/>
       <c r="BY35" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="36" s="92">
+    <row r="36" ht="12" customHeight="1" s="92">
       <c r="A36" s="123" t="n"/>
       <c r="B36" s="127" t="n"/>
       <c r="C36" s="127" t="n"/>
@@ -15288,7 +15288,7 @@
       <c r="X36" s="127" t="n"/>
       <c r="BY36" s="125" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="37" s="92" thickBot="1">
+    <row r="37" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A37" s="133" t="n"/>
       <c r="B37" s="134" t="n"/>
       <c r="C37" s="134" t="n"/>
@@ -15367,7 +15367,7 @@
       <c r="BX37" s="134" t="n"/>
       <c r="BY37" s="135" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="38" s="92" thickTop="1">
+    <row r="38" ht="12" customHeight="1" s="92" thickTop="1">
       <c r="A38" s="324" t="inlineStr">
         <is>
           <t>Survey No</t>
@@ -15454,7 +15454,7 @@
       <c r="BX38" s="136" t="n"/>
       <c r="BY38" s="139" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="39" s="92">
+    <row r="39" ht="12" customHeight="1" s="92">
       <c r="A39" s="326" t="inlineStr">
         <is>
           <t>Date</t>
@@ -15513,7 +15513,7 @@
       <c r="BX39" s="140" t="n"/>
       <c r="BY39" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="40" s="92">
+    <row r="40" ht="12" customHeight="1" s="92">
       <c r="A40" s="326" t="inlineStr">
         <is>
           <t>Survey Tech</t>
@@ -15574,7 +15574,7 @@
       <c r="BX40" s="140" t="n"/>
       <c r="BY40" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="41" s="92">
+    <row r="41" ht="12" customHeight="1" s="92">
       <c r="A41" s="326" t="inlineStr">
         <is>
           <t>Count Room Tech</t>
@@ -15635,7 +15635,7 @@
       <c r="BX41" s="140" t="n"/>
       <c r="BY41" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="42" s="92">
+    <row r="42" ht="12" customHeight="1" s="92">
       <c r="A42" s="326" t="inlineStr">
         <is>
           <t>Date Counted</t>
@@ -15694,7 +15694,7 @@
       <c r="BX42" s="144" t="n"/>
       <c r="BY42" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="43" s="92">
+    <row r="43" ht="12" customHeight="1" s="92">
       <c r="A43" s="326" t="inlineStr">
         <is>
           <t>Survey Type</t>
@@ -15755,7 +15755,7 @@
       <c r="BX43" s="144" t="n"/>
       <c r="BY43" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="44" s="92">
+    <row r="44" ht="12" customHeight="1" s="92">
       <c r="A44" s="326" t="inlineStr">
         <is>
           <t>Level of Posting</t>
@@ -15816,7 +15816,7 @@
       <c r="BX44" s="140" t="n"/>
       <c r="BY44" s="141" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="45" s="92" thickBot="1">
+    <row r="45" ht="12" customHeight="1" s="92" thickBot="1">
       <c r="A45" s="329" t="inlineStr">
         <is>
           <t>Comments</t>
@@ -15899,15 +15899,15 @@
       <c r="BX45" s="146" t="n"/>
       <c r="BY45" s="147" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="46" s="92" thickTop="1"/>
+    <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
     <row r="47"/>
     <row r="48"/>
     <row r="49"/>
-    <row customHeight="1" ht="12" r="51" s="92">
+    <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
     </row>
-    <row customHeight="1" ht="12" r="52" s="92">
+    <row r="52" ht="12" customHeight="1" s="92">
       <c r="A52" s="148" t="n"/>
       <c r="B52" s="127" t="n"/>
     </row>
@@ -15932,8 +15932,8 @@
     <mergeCell ref="K43:Y43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.1" header="0.375" left="0.25" right="0.25" top="0.25"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.375" footer="0.1"/>
+  <pageSetup orientation="landscape" fitToHeight="0"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"_x000a_                                                            </oddHeader>
     <oddFooter/>

--- a/surveys/Characterization 102819-524.xlsx
+++ b/surveys/Characterization 102819-524.xlsx
@@ -2814,7 +2814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC49"/>
+  <dimension ref="A1:BC39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA14" sqref="AA14"/>
@@ -4600,16 +4600,6 @@
       <c r="BB39" s="91" t="n"/>
       <c r="BC39" s="91" t="n"/>
     </row>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
   </sheetData>
   <mergeCells count="77">
     <mergeCell ref="B25:H25"/>
@@ -6534,9 +6524,6 @@
       <c r="BY45" s="147" t="n"/>
     </row>
     <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
     <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
@@ -8409,9 +8396,6 @@
       <c r="BY45" s="147" t="n"/>
     </row>
     <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
     <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
@@ -10284,9 +10268,6 @@
       <c r="BY45" s="147" t="n"/>
     </row>
     <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
     <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
@@ -12160,9 +12141,6 @@
       <c r="BY45" s="147" t="n"/>
     </row>
     <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
     <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
@@ -14036,9 +14014,6 @@
       <c r="BY45" s="147" t="n"/>
     </row>
     <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
     <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
@@ -15910,9 +15885,6 @@
       <c r="BY45" s="147" t="n"/>
     </row>
     <row r="46" ht="12" customHeight="1" s="92" thickTop="1"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
     <row r="51" ht="12" customHeight="1" s="92">
       <c r="A51" s="148" t="n"/>
       <c r="B51" s="127" t="n"/>
